--- a/jobs_exported.xlsx
+++ b/jobs_exported.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,129 +436,139 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Responsibilities</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Company Summary</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Start Date</t>
+          <t>Company_Summary</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Start_Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Deadline</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Posting Date</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Posting_Date</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025 Full-Time Analyst Program - EMEA</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BlackRock</t>
+          <t>Software Engineering Internship (12 months, 2024-2025)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMEA</t>
+          <t>Cambridge Consultants</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Full-Time Analyst Programme empowers and supports Analysts in connecting their personal passions and strengths to BlackRock’s mission, principles, and purpose through a two-year experience. Analysts participate in orientation, ongoing training, and professional development to make a lasting impact on the firm.</t>
+          <t>Cambridge (specific location not mentioned)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BlackRock is a global investment management corporation.</t>
+          <t>The Software Engineering Intern will work as part of a multidisciplinary team on various client projects, contributing to the design, implementation, and testing of software products. The intern will collaborate with highly skilled engineers in areas such as real-time embedded software, UI development, and work alongside other engineering disciplines.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Cambridge Consultants is a world leader in product design, specializing in areas like sensor design, robotics, and complex systems.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Summer 2024</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://blackrock.tal.net/vx/brand-3/spa-1/candidate/so/pm/1/pl/1/opp/8160-2025-Full-Time-Analyst-Program-EMEA/en-GB</t>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://careers.cambridgeconsultants.com/find-a-job/1810/software-engineering-internship-12-months-2024-2025?search=https%3A%2F%2Fcareers.cambridgeconsultants.com%2Fcareers%2Fsearch</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Analyst/Associate, Investment Product Strategy - Multi-Asset Strategies &amp; Solutions</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Analyst Programme - Technology - Software Engineering - 2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>BlackRock</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Budapest, HU</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BlackRock's Multi-Asset Strategies &amp; Solutions team manages over $1200 billion in assets, with a focus on portfolio construction, asset allocation, and active management.</t>
+          <t>The two-year Full-Time Analyst Programme empowers and supports Analysts in connecting their personal passions and strengths to BlackRock’s mission and purpose. Analysts begin with an orientation, join various teams to have a lasting impact, and contribute to the firm's purpose. Analysts may be considered for teams like Aladdin Engineering, Global Investment Operations (GIO) Engineering, Aladdin Product Management, Data Operations Engineering, and Separately Managed Accounts (SMA) Solutions.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Investment management company.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Not Found</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Rolling</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Not Found</t>
@@ -566,242 +576,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://careers.blackrock.com/job/20418142/analyst-associate-investment-product-strategy-multi-asset-strategies-solutions-budapest-hu/</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Analyst.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gain Theory.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Not Found.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>As an Analyst at Gain Theory, you will progress to the role of Senior Analyst within 10 months while delivering high-quality work for clients. You will receive industry-leading training through the Training Academy and develop technical skills and knowledge to provide valuable insights and recommendations to clients.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Gain Theory is a global marketing effectiveness and foresight consultancy that combines data, technology, and analytics to help clients make informed investment decisions for growth.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Not Found.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Not Found.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Not Found.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/gaintheory/jobs/7427938002</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Graduate Software Engineer</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BAE Systems</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>Not Found</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Develop cutting-edge software for hardware, participate in the entire product lifecycle, work closely with Electronic and Systems engineers to ensure flawless performance in complex systems.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>BAE Systems is a global defense and aerospace company, specializing in advanced technology solutions for military and commercial customers.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>January/April 2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Rolling</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://www.gradcracker.com/hub/141/bae-systems/graduate-job/61473/graduate-software-engineer</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Analyst Programme - Technology - Software Engineering - 2025</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BlackRock</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The two-year Full-Time Analyst Programme is designed for candidates graduating with a bachelor’s or master’s degree between September 2024 and July 2025. Analysts will be empowered to connect their personal passions to BlackRock’s mission, principles, and purpose. They will work in various teams, gaining insights, training, and professional development opportunities to contribute to the firm's goal of promoting financial well-being. Candidates can apply for up to two functions within the programme.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BlackRock is a global asset management and technology firm focusing on building resilient and diverse solutions for stakeholders.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://www.gradcracker.com/hub/807/blackrock/graduate-job/62036/analyst-programme-technology-software-engineering-2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tools &amp; Compilers Research and Development Internship</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jane Street</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LDN (London)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The intern will work on a project for about 10-12 weeks in collaboration with mentors, focusing on research areas like programming languages, compilers, verification, etc. Specifically, the intern will work in the Tools and Compilers group to enhance the OCaml compiler and toolchain, with a majority of the work being open-source.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Jane Street is a global financial services firm, with a focus on technology and research.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://www.janestreet.com/join-jane-street/position/5866838002/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Software Engineering Internship (12 months, 2024-2025).</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cambridge Consultants.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cambridge (specific location not provided).</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The Software Engineering Intern will work within the Software and Electronics Department on various client projects, contributing to the design, implementation, and testing of software across different markets. They will collaborate with a multi-disciplinary team on cutting-edge product development, gaining hands-on experience and learning new skills in software engineering.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cambridge Consultants is a leading product design company specializing in areas such as sensor design, robotics, control problems, and complex systems.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Summer 2024.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Not Found.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Not Found.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://careers.cambridgeconsultants.com/find-a-job/1810/software-engineering-internship-12-months-2024-2025?search=https%3A%2F%2Fcareers.cambridgeconsultants.com%2Fcareers%2Fsearch</t>
         </is>
       </c>
     </row>

--- a/jobs_exported.xlsx
+++ b/jobs_exported.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,132 +436,94 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Responsibilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Responsibilities</t>
+          <t>Company_Summary</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Company_Summary</t>
+          <t>Start_Date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Start_Date</t>
+          <t>Deadline</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Deadline</t>
+          <t>Posting_Date</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Posting_Date</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Software Engineering Internship (12 months, 2024-2025)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cambridge Consultants</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cambridge (specific location not mentioned)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>The Software Engineering Intern will work as part of a multidisciplinary team on various client projects, contributing to the design, implementation, and testing of software products. The intern will collaborate with highly skilled engineers in areas such as real-time embedded software, UI development, and work alongside other engineering disciplines.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Cambridge Consultants is a world leader in product design, specializing in areas like sensor design, robotics, and complex systems.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Summer 2024</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://careers.cambridgeconsultants.com/find-a-job/1810/software-engineering-internship-12-months-2024-2025?search=https%3A%2F%2Fcareers.cambridgeconsultants.com%2Fcareers%2Fsearch</t>
+          <t>https://apply.workable.com/quickrelease/j/0FF460B38D/</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Analyst Programme - Technology - Software Engineering - 2025</t>
+          <t>Gain Theory</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BlackRock</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>As an Analyst, you will collate, analyze, and validate key performance data from clients, support and engage in client calls, collaborate with your team to establish econometric models, participate in the Training Academy, and undergo ongoing learning and development to prepare for career progression opportunities after 10 months.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The two-year Full-Time Analyst Programme empowers and supports Analysts in connecting their personal passions and strengths to BlackRock’s mission and purpose. Analysts begin with an orientation, join various teams to have a lasting impact, and contribute to the firm's purpose. Analysts may be considered for teams like Aladdin Engineering, Global Investment Operations (GIO) Engineering, Aladdin Product Management, Data Operations Engineering, and Separately Managed Accounts (SMA) Solutions.</t>
+          <t>Gain Theory is a leading global marketing effectiveness and foresight consultancy that accelerates growth for ambitious brands.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Investment management company.</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -571,17 +533,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Not Found.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.gradcracker.com/hub/807/blackrock/graduate-job/62036/analyst-programme-technology-software-engineering-2025</t>
+          <t>https://boards.greenhouse.io/gaintheory/jobs/7427938002</t>
         </is>
       </c>
     </row>

--- a/jobs_exported.xlsx
+++ b/jobs_exported.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,109 +436,380 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Responsibilities</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Company_Summary</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Start_Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Deadline</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Posting_Date</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Embedding</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025 Full-Time Analyst Program - EMEA.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BlackRock.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EMEA.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>The program is a two-year experience to empower and support Analysts in connecting their personal passions and strengths to BlackRock's mission, principles, and purpose. The program includes an orientation, joining teams, ongoing training, and professional development to contribute to BlackRock's collective purpose. Candidates can apply for up to two functions within the program.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not Found.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Not Found.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Not Found.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quickrelease/j/0FF460B38D/</t>
+          <t>2024-07-10.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://blackrock.tal.net/vx/brand-3/spa-1/candidate/so/pm/1/pl/1/opp/8160-2025-Full-Time-Analyst-Program-EMEA/en-GB</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>do this  ASAP</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[-0.033743176609277725, -0.048345617949962616, -0.04582605138421059, 0.013140936382114887, -0.00043513879063539207, -0.015164581127464771, -0.10559264570474625, 0.007391585037112236, -0.0623038113117218, -0.08784788846969604, -0.015139295719563961, -0.04571225866675377, -0.041405774652957916, -0.028423428535461426, -0.05413978546857834, 0.036913663148880005, 0.03060143068432808, -0.12113075703382492, 0.04774594306945801, -0.08333242684602737, -0.05349944904446602, -0.026873230934143066, -0.04815082252025604, -0.02028927579522133, 0.0014181418810039759, 0.044124800711870193, -0.04913049936294556, -0.028951171785593033, -0.03853727877140045, -0.053328972309827805, 0.029082005843520164, -5.544238956645131e-05, 0.09907113760709763, 0.038419876247644424, 0.07208051532506943, 0.09523702412843704, -0.054625652730464935, 0.047536879777908325, -0.020030422136187553, -0.022603219375014305, -0.059872303158044815, -0.044038835912942886, -0.052203256636857986, 0.05772116780281067, 0.012114507146179676, -0.104239322245121, 0.08666917681694031, -0.05901888385415077, -0.037115879356861115, 0.030139373615384102, -0.07813785970211029, -0.11146333813667297, 0.015209292992949486, -0.04517224431037903, 0.021418193355202675, 0.05772911384701729, 0.03642810508608818, 0.0023434890899807215, -0.0045218993909657, -0.0284180399030447, 0.03661283850669861, -0.006058202590793371, -0.010248485952615738, 0.007699958980083466, 0.08357939124107361, -0.01504268404096365, 0.0028167208656668663, 0.03713802993297577, -0.03549402952194214, -0.06463000178337097, 0.03591427579522133, -0.09128601104021072, -0.08588709682226181, 0.044679779559373856, 0.010283307172358036, 0.13696134090423584, 0.08258771896362305, 0.01805289089679718, 0.13758234679698944, -0.0871838852763176, 0.025577416643500328, -0.055596817284822464, -0.0366859957575798, 0.018358996137976646, -0.02246084250509739, -0.01606466807425022, -0.017656702548265457, 0.05017930269241333, 0.04534928873181343, 0.0017415721667930484, -0.00966441910713911, 0.0027401060797274113, 0.018950436264276505, -0.037208981812000275, 0.016445331275463104, -0.0031954955775290728, -0.07462989538908005, -0.03491680324077606, -0.03750348836183548, 0.03597944602370262, -0.07508028298616409, -0.0034927166998386383, 0.025378765538334846, -0.02279968000948429, -0.1519404947757721, -0.0334007628262043, 0.007413189392536879, 0.043899357318878174, 0.004648895468562841, -0.002632536692544818, 0.015588360838592052, 0.05052582919597626, -0.012563342228531837, -0.0027032264042645693, 0.06694953143596649, 0.04260191321372986, -0.08911026269197464, 0.05600409582257271, 0.11271732300519943, 0.03410647064447403, 0.008458830416202545, 0.06804075837135315, 0.03352232277393341, -0.025033406913280487, -0.04733284190297127, 0.007784607354551554, -0.08863060176372528, -4.4783429091230715e-33, -0.03788352012634277, 0.011514340527355671, -0.004670565016567707, 0.0705268383026123, 0.010261401534080505, -0.02506116032600403, -0.008492971770465374, 0.04498014971613884, -0.03323822095990181, 0.08934672176837921, 0.00696595897898078, 0.11406432092189789, 0.039476796984672546, 0.04462333396077156, -0.011903868988156319, -0.04863271862268448, 0.05833371728658676, 0.0484379343688488, -0.012043274939060211, -0.02039942517876625, 0.06520663946866989, -0.10908326506614685, -0.043450139462947845, -0.005750551354140043, 0.010391389019787312, -0.03272391855716705, 0.023627661168575287, -0.0029343105852603912, 0.040900494903326035, 0.014601020142436028, -0.016780786216259003, 0.022982247173786163, -0.04299526289105415, -0.04924461245536804, 0.08587411791086197, -0.0007898451876826584, -0.025183329358696938, -0.02298629842698574, 0.024111054837703705, 0.00526385335251689, 0.002692724112421274, 0.006909716874361038, 0.013217111118137836, -0.11253891885280609, 0.03522714972496033, -0.02284696139395237, 0.02689361199736595, -0.07132551819086075, 0.0672745481133461, 0.033705100417137146, -0.07296884804964066, -0.0721363052725792, 0.01342732459306717, -0.03353992477059364, 0.04739994555711746, -0.008325611241161823, -0.01680983416736126, -0.04026823118329048, 0.04629528895020485, -0.041612330824136734, 0.02802114561200142, 0.060919277369976044, -0.11214371025562286, -0.02939079888164997, -0.11196152120828629, 0.0359991081058979, -0.0062381853349506855, 0.059845078736543655, 0.050060875713825226, 0.055870719254016876, 0.011318741366267204, -0.047046687453985214, 0.057631466537714005, 0.01550787128508091, 0.0022498241160064936, -0.0398053377866745, -0.014821785502135754, 0.03136797621846199, 0.06087091565132141, 0.04179196059703827, 0.022251516580581665, 0.03920619562268257, -0.006583237089216709, -0.03721705451607704, 0.07984662055969238, -0.0080028735101223, 0.00670284079387784, -0.0023283464834094048, 0.010731954127550125, 0.0709858387708664, -0.06200527027249336, 0.02147955633699894, -0.09665896743535995, 0.18524962663650513, 0.06818737834692001, 7.034860277688696e-34, 0.025537416338920593, -0.026821468025445938, 0.0637495368719101, -0.053762584924697876, 0.09994800388813019, 0.015113556757569313, 0.0728374570608139, 0.011677684262394905, 0.05884880572557449, 0.07701443135738373, 0.041575681418180466, 0.01486940123140812, -0.006551679689437151, -0.014281027019023895, 0.037320319563150406, -0.01384839229285717, -0.00990449357777834, -0.037720438092947006, -0.042969003319740295, 0.002496367320418358, 0.028796613216400146, -0.031100351363420486, -0.05621267482638359, 0.04142694175243378, 0.03923017159104347, 0.011183420196175575, 0.09440254420042038, -0.029290786013007164, -0.028506342321634293, 0.006825007498264313, -0.03477098047733307, -0.05119973421096802, -0.10830988734960556, 0.064421646296978, -0.06805102527141571, 0.009789342060685158, 0.015475102700293064, -0.009641352109611034, -0.04000893607735634, -0.03761162608861923, 0.06423433870077133, -0.004357772879302502, -0.01734253391623497, 0.05525343120098114, -0.043159592896699905, 0.07549973577260971, 0.05397279933094978, 0.006339446175843477, 0.032464854419231415, -0.0929417610168457, 0.023142889142036438, -0.043590448796749115, 0.041109636425971985, -0.07213156670331955, 0.02409651316702366, -0.02065020613372326, 0.08219419419765472, 0.005277693271636963, -0.03720439597964287, 0.022947115823626518, 0.03517968952655792, 0.01891339011490345, 0.02497456967830658, -0.013141949661076069, -0.04688163474202156, -0.02513211779296398, 0.030022207647562027, 0.04452364146709442, -0.0891190841794014, -0.010366219095885754, 0.03552917391061783, 0.015844298526644707, -0.053384579718112946, -0.033503204584121704, -0.11453506350517273, 0.06686800718307495, -0.05195852369070053, -0.07015703618526459, -0.029312388971447945, -0.08458513766527176, 0.013147525489330292, -0.02241380326449871, 0.02020859904587269, 0.06118416041135788, 0.022399306297302246, 0.016329802572727203, -0.028193257749080658, 0.040509942919015884, 0.051756974309682846, -0.037277016788721085, -0.09342068433761597, -0.0015448156045749784, -0.018360916525125504, 0.051383353769779205, 0.035407982766628265, -5.958699844654802e-08, -0.015901610255241394, 0.008411332964897156, 0.07155180722475052, -0.005119251552969217, 0.08424974232912064, -0.015896299853920937, 0.012719310820102692, -0.050868794322013855, 0.11915598064661026, 0.030075710266828537, -0.01595495641231537, -0.03893915191292763, -0.02242128551006317, 0.007325269281864166, -0.012719761580228806, 0.01198244746774435, 0.015816057100892067, 0.011701284907758236, 0.056125156581401825, 0.018610572442412376, 0.00427672453224659, 0.007073940709233284, 0.03820556029677391, -0.027791349217295647, -0.021298691630363464, -0.08704107254743576, -0.06978296488523483, 0.07244765013456345, 0.02060604654252529, -0.03819208964705467, 0.03742515295743942, 0.02318674698472023, 0.07983800023794174, -0.09362082928419113, 0.0017527777235955, -0.013721000403165817, 0.0550810806453228, 0.02210722491145134, -0.0848151370882988, -0.05268773436546326, -0.05256568640470505, 0.010413920506834984, 0.08267369866371155, -0.0034930824767798185, -0.05437001213431358, 0.005121666472405195, -0.13286632299423218, 0.040459927171468735, -0.020198224112391472, -0.07554101943969727, 0.02813813090324402, -0.0055683208629488945, -0.02049284055829048, 0.04921826720237732, 0.05880393460392952, 0.052497342228889465, -0.013709556311368942, -0.05425423011183739, -0.04925579950213432, 0.0165861789137125, 0.07876241952180862, -0.13480374217033386, -0.035543303936719894, -0.010141716338694096]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>assessments</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Analyst</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Gain Theory</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>As an Analyst, you will collate, analyze, and validate key performance data from clients, support and engage in client calls, collaborate with your team to establish econometric models, participate in the Training Academy, and undergo ongoing learning and development to prepare for career progression opportunities after 10 months.</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gain Theory is a leading global marketing effectiveness and foresight consultancy that accelerates growth for ambitious brands.</t>
+          <t>As an Analyst, you will collate, analyze, and validate key performance data from clients. You will also support and engage in client calls, collaborate with the team to establish econometric models, and participate in industry-leading training academy.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Gain Theory is a leading global marketing effectiveness and foresight consultancy that combines quality data, proprietary technology, and advanced analytics to give clients the confidence to make better informed investment decisions that drive growth.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Not Found</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/gaintheory/jobs/7427938002</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[-0.03617524728178978, -0.01684778928756714, -0.10282022505998611, 0.01091993972659111, -0.030735304579138756, 0.03704344108700752, 0.060514915734529495, 0.031208988279104233, -0.025658220052719116, -0.02244722843170166, -0.014958664774894714, 0.03325890004634857, 0.042117640376091, 0.016822515055537224, -0.005939063150435686, 0.05527690052986145, 0.04875655472278595, -0.027031250298023224, 0.04760025069117546, -0.054056599736213684, -0.10578636825084686, -0.00741778127849102, 0.0006438311538659036, 0.0038523529656231403, 0.03493031486868858, -0.07867499440908432, -0.0044821626506745815, 0.00930619053542614, 0.01004085224121809, -0.017391767352819443, -0.06818144768476486, 0.008683830499649048, 0.06341862678527832, -0.030293060466647148, -0.028015773743391037, 0.0392865315079689, -0.022466914728283882, 0.007174388505518436, 0.03377131372690201, 0.06070803478360176, 0.008789228275418282, -0.0173904150724411, 0.05810488015413284, 0.012133161537349224, 0.006526822689920664, -0.07950325310230255, 0.037651605904102325, 0.018003756180405617, -0.050845105201005936, -0.07548589259386063, -0.1237550601363182, -0.04816557466983795, 0.0021112936083227396, -0.008025047369301319, -0.005250103306025267, 0.032785575836896896, 0.025298770517110825, 0.0014029425801709294, -0.03644296154379845, -0.061432238668203354, 0.010071387514472008, -0.017039146274328232, -0.012769605033099651, 0.02562638744711876, 0.06787535548210144, -0.028722060844302177, -0.03862445428967476, 0.053175538778305054, -0.046982817351818085, -0.04528726637363434, 0.03302427753806114, -0.07588844746351242, -0.08013007789850235, -0.009208624251186848, 0.03150466829538345, 0.026284074410796165, 0.047979313880205154, 0.07363492995500565, 0.06446101516485214, 0.04101540148258209, -0.02026582695543766, 0.04349489137530327, -0.014452176168560982, 0.006222696043550968, -0.0546291321516037, -0.02817470207810402, 0.037468623369932175, -0.01107393391430378, 0.00041245276224799454, 0.023408787325024605, 0.01687082089483738, 0.019579170271754265, -0.05793518200516701, 0.05726981163024902, -0.03346298262476921, 0.035640791058540344, -0.08764880150556564, -0.11421243846416473, 0.004476706497371197, 0.038645993918180466, -0.009535488672554493, 0.04834902659058571, -0.015075348317623138, 0.004149189684540033, -0.0675940066576004, -0.04427681863307953, -0.014226622879505157, 0.10235485434532166, 0.04566509276628494, 0.07857022434473038, -0.036807723343372345, -0.006161827594041824, -0.0020064383279532194, 0.00971301645040512, 0.05077414587140083, 0.0635719895362854, -0.06196865066885948, 0.0315643809735775, 0.003923310432583094, -0.01363882701843977, 0.06560343503952026, 0.017980076372623444, 0.05291755869984627, 0.005439455155283213, -0.07535050064325333, -0.009754320606589317, -0.09103557467460632, 5.391449035878948e-35, -0.06272536516189575, 0.04929840937256813, 0.036447882652282715, 0.08601848036050797, -0.049245964735746384, -0.024329133331775665, -0.010745538398623466, -0.016153648495674133, -0.01903172954916954, -0.04253075644373894, -0.07561866194009781, 0.09270872920751572, 0.044196657836437225, 0.048440780490636826, -0.043521322309970856, 0.012593727558851242, 0.028523104265332222, 0.11126390099525452, 0.03781392425298691, 0.007964713498950005, 0.09006647765636444, -0.037546053528785706, 0.014869979582726955, 0.016680877655744553, 0.05363954231142998, 0.04480181261897087, 0.002823798917233944, 0.07806959003210068, -0.049127258360385895, 0.003030987223610282, 0.05515991523861885, -0.0076226224191486835, -0.10653024911880493, -0.0945419892668724, -0.003395572304725647, -0.04975854605436325, 0.0011111489729955792, -0.06537288427352905, 0.03524620458483696, 0.030168600380420685, -0.04256515949964523, -0.02845599688589573, 0.011186378076672554, -0.053081247955560684, -0.02802911587059498, 0.020319504663348198, -0.0037522844504565, -0.0694185271859169, 0.0285651795566082, 0.049586955457925797, -0.098735012114048, -0.08995892852544785, 0.001711799530312419, -0.06053822487592697, -0.04883328452706337, 0.09504895657300949, -0.03074093721807003, -0.025042252615094185, 0.015500570647418499, -0.04647331312298775, -0.058911558240652084, -0.012837911956012249, -0.04124242067337036, -0.0705714076757431, -0.13450181484222412, -0.00583950849249959, 0.01450711116194725, -0.055657342076301575, 0.06628462672233582, 0.02017817832529545, 0.06089208647608757, -0.024792823940515518, 0.09216300398111343, 0.006703800987452269, 0.04512733593583107, -0.10398469865322113, -0.09723209589719772, 0.04704909399151802, 0.13979563117027283, 0.042965926229953766, 0.038985829800367355, -0.00030816736398264766, 0.03365778177976608, -0.01200962532311678, 0.041115645319223404, -0.031536512076854706, -0.0630580261349678, -0.017402181401848793, 0.08240123838186264, 0.08455193787813187, -0.09838796406984329, 0.08772924542427063, -0.1221916452050209, 0.0743587538599968, -0.023787446320056915, -2.6468174670633505e-33, 0.08179772645235062, -0.00450586574152112, -0.03758813813328743, -0.06272352486848831, 0.08349829167127609, -0.010253124870359898, -0.06175142526626587, 0.021309001371264458, 0.04320826753973961, -0.014581833966076374, 6.187948019942269e-05, -0.011732243001461029, -0.01351251546293497, 0.011899363249540329, -0.05321893468499184, -0.06559944897890091, 0.028349008411169052, -0.07214423269033432, -0.049135904759168625, -0.008081645704805851, 0.061002328991889954, -0.07125905901193619, -0.09134452790021896, -0.033068422228097916, 0.03390980884432793, -0.022683601826429367, 0.0002908932510763407, 0.0682118833065033, -0.07300160080194473, 0.0700254887342453, -0.019642017781734467, -0.02838226594030857, -0.10978225618600845, 0.03948788717389107, -0.052356742322444916, 0.07936782389879227, 0.04169036075472832, -0.047248244285583496, -0.0246355589479208, 0.057456132024526596, 0.0031747729517519474, 0.012205636128783226, 0.05930301919579506, -0.013845160603523254, 0.03357319533824921, 0.03796421363949776, 0.14784358441829681, 0.03400079533457756, 0.012254981324076653, -0.021779589354991913, 0.07487177103757858, 0.05069710686802864, 0.02819165401160717, 0.0005649125669151545, -0.049259062856435776, 0.09808260947465897, 0.092165507376194, -0.03248254209756851, -0.007856854237616062, 0.05299977958202362, 0.005591945257037878, 0.035072192549705505, -0.014052877202630043, -0.009730148129165173, -0.04300090670585632, -0.021803513169288635, 0.0006927902577444911, -0.020352711901068687, 0.020970413461327553, -0.09146761149168015, 0.05151217803359032, -0.03282065689563751, -0.010086435824632645, 0.002927085617557168, -0.04253143444657326, 0.03808117285370827, -0.0631907507777214, -0.0476609542965889, -0.013005577959120274, -0.03210096061229706, -0.02612932398915291, 0.0038683314342051744, 0.07854735851287842, 0.033021893352270126, 0.006405374966561794, 0.02149629220366478, -0.015825236216187477, -0.03443046659231186, -0.0007924208184704185, -0.0887855514883995, -0.1314254254102707, -0.016300030052661896, -0.04489191994071007, 0.02793152444064617, 0.014892063103616238, -5.684142223572053e-08, -0.100779689848423, -0.007249295245856047, 0.09053586423397064, 0.08172129839658737, -0.018719423562288284, -0.012814375571906567, -0.01683923788368702, -0.00756689952686429, 0.06095162034034729, 0.0020825499668717384, -0.04600759223103523, -0.007471881806850433, -0.07573869079351425, 0.06384991109371185, 0.05653376132249832, -0.02985851652920246, 0.023296084254980087, 0.053671807050704956, -0.043284837156534195, -0.04111054912209511, 0.11802650988101959, 0.038691721856594086, 0.05816294252872467, -0.0744866281747818, 0.043267276138067245, -0.08713839203119278, -0.07818238437175751, 0.06777147948741913, -0.01733628660440445, -0.07505732029676437, 0.019575469195842743, 0.03124314919114113, 0.05031273886561394, -0.008783383294939995, 0.05907372012734413, 0.04401947930455208, 0.02895377390086651, 0.015249097719788551, -0.01524287648499012, 0.04904765263199806, -0.04978084936738014, 0.07729530334472656, 0.07265207916498184, 0.015861356630921364, -0.055862464010715485, 0.0693650022149086, -0.1166776567697525, 0.037552010267972946, -0.031720083206892014, -0.014487185515463352, 0.06921673566102982, -0.03203704580664635, -0.06875330209732056, 0.006764883175492287, 0.02214249223470688, 0.011230901814997196, 0.03002835623919964, -0.04654210805892944, -0.03339070826768875, 0.062055692076683044, 0.013338204473257065, -0.05976705253124237, 0.009026599116623402, 0.020755186676979065]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>applied</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Graduate Consultant Intake 2024.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Quick Release (an Alten Company).</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Work with clients to develop insights into process, systems, and data; build relationships and advise clients; shape solutions and support project plans; assist in improving consultancy division.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Quick Release specializes in product data management and consultancy, serving various industries including automotive and aerospace, with a focus on sustainable practices.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Not Found.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://boards.greenhouse.io/gaintheory/jobs/7427938002</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Not Found.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Found.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://apply.workable.com/quickrelease/j/0FF460B38D/</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[0.04312320053577423, -0.02441742829978466, 0.02473611757159233, -0.04014221578836441, -0.004613113589584827, 0.007317930925637484, 0.0013927657855674624, -0.011410627514123917, -0.06267105787992477, -0.04160746932029724, 0.03767788037657738, 0.022916579619050026, -0.04463094100356102, 0.00851225946098566, -0.012179264798760414, -0.0037409779615700245, 0.03320774435997009, -0.09867992997169495, -0.0005652212421409786, -0.027974005788564682, -0.07952183485031128, 0.0007919144118204713, -0.0297216959297657, 0.045065466314554214, -0.029927639290690422, 0.010751998052001, 0.01854005828499794, -0.0074796658009290695, 0.012399168685078621, -0.04493426904082298, 0.015951113775372505, 0.08489913493394852, -0.023065144196152687, -0.022229423746466637, 0.051801640540361404, 0.13696590065956116, -0.030268196016550064, 0.04223543033003807, 0.013052407652139664, 0.006582748610526323, -0.0344683974981308, -0.11409737914800644, -0.06624039262533188, 0.04427564516663551, 0.06575196981430054, -0.016405746340751648, 0.014030569233000278, 0.0026411954313516617, -0.05050620064139366, -0.015747586265206337, -0.11647447943687439, -0.05079912766814232, 0.007246521767228842, -0.09053082764148712, -0.05592940002679825, 0.03904743865132332, -0.02433457225561142, 0.03011462837457657, -0.05515897646546364, -0.017556309700012207, -0.023330742493271828, -0.0356125608086586, -0.021197231486439705, -0.020878512412309647, 0.04162821173667908, 0.007667718920856714, 0.02795707993209362, 0.03636974096298218, -0.04792076349258423, -0.09139443933963776, -0.023409133777022362, -0.09107837080955505, -0.07854247838258743, 0.05832641199231148, 0.017984755337238312, 0.045162100344896317, 0.02043725922703743, 0.004717602394521236, 0.06450293958187103, -0.07803269475698471, 0.08425817638635635, 0.08413401246070862, -0.0388433113694191, 0.07040176540613174, -0.08747522532939911, -0.06833934038877487, 0.026026399806141853, 0.02539004758000374, 0.006567691452801228, -0.024104658514261246, 0.0021314516197890043, -0.0503113716840744, -0.006491658743470907, 0.06189354881644249, -0.09399809688329697, 0.018462106585502625, 0.009590043686330318, -0.04428578540682793, -0.043938200920820236, 0.00048229729873128235, -0.03452175855636597, 0.03604536131024361, -0.04099122807383537, 0.03623379394412041, -0.14993703365325928, -0.044436607509851456, -0.04150080680847168, 0.09848978370428085, 0.08485368639230728, 0.01669211871922016, -0.006495494395494461, 0.06416567414999008, -0.12611441314220428, -0.015486974269151688, 0.040821436792612076, -0.07275787740945816, -0.14113055169582367, 0.002647154964506626, 0.05939466133713722, 0.04377642273902893, -0.06274452060461044, 0.1141902282834053, 0.027423866093158722, -0.020619390532374382, -0.047516874969005585, 0.024411333724856377, -0.05212864652276039, -3.0775125360618902e-33, -0.028344273567199707, 0.03494307026267052, 0.03215491399168968, 0.08425966650247574, -0.028228217735886574, -0.05256505683064461, -0.02209959551692009, 0.08558598905801773, 0.0020086478907614946, -0.0008591270307078958, 0.04468179866671562, 0.04767604172229767, -0.013792370446026325, -0.03263666108250618, 0.018465055152773857, -0.01247711107134819, 0.0480479970574379, 0.11962898820638657, -0.04131714254617691, 0.0009646588587202132, -0.08264760673046112, -0.07340347021818161, 0.02335263416171074, 0.042281556874513626, 0.10219986736774445, 0.0006158718024380505, 0.03959245607256889, 0.08345631510019302, 0.08656913042068481, 0.030615447089076042, 0.01280041690915823, -0.014686552807688713, -0.03518012538552284, -0.04027124121785164, -0.01984396204352379, -0.02415081299841404, -0.10710271447896957, -0.09056967496871948, -0.0011653798865154386, 0.005724085494875908, -0.06628144532442093, 0.04784078523516655, 0.016359133645892143, -0.044943131506443024, -0.024865711107850075, -0.0035149534232914448, -0.003192795440554619, 0.015930259600281715, 0.048065658658742905, 0.00370949599891901, -0.06354566663503647, -6.026925802871119e-06, -0.0029608779586851597, 0.025986071676015854, 0.007731297053396702, 0.008746701292693615, 0.029331795871257782, -0.04812733083963394, -0.011483453214168549, -0.026329590007662773, -0.07556634396314621, 0.08332483470439911, -0.09735066443681717, -0.06446129828691483, -0.006807639729231596, -0.03823509439826012, 0.01833161897957325, -0.02447563037276268, 0.023979373276233673, 0.024745019152760506, -0.034423697739839554, 0.0405903160572052, 0.14878104627132416, 0.002129425061866641, 0.007690496277064085, 0.003360054222866893, -0.07443057000637054, 0.0026026119012385607, 0.04113808646798134, 0.07499639689922333, 0.025251183658838272, 0.06952576339244843, 0.0215024221688509, -0.020924586802721024, 0.08480818569660187, 0.0013631752226501703, 0.023212330415844917, 0.00654195062816143, 0.03119901567697525, 0.07392148673534393, -0.0896061360836029, -0.010255781933665276, -0.10217250883579254, 0.10294262319803238, -0.013516894541680813, 7.784610319274825e-35, 0.053582336753606796, -0.049075618386268616, 0.0414024256169796, -0.016293615102767944, 0.13967818021774292, 0.014203622005879879, -0.002083816798403859, -0.017928626388311386, -0.001570410095155239, 0.07071840763092041, -0.0038221741560846567, -0.023438068106770515, -0.016728339716792107, 0.01640496961772442, -0.007156104315072298, 0.0073293522000312805, -0.013517498038709164, -0.13343745470046997, 0.0113282585516572, -0.0018696708139032125, 0.04265239089727402, -0.10393978655338287, 0.046610474586486816, 0.019517626613378525, -0.0031338389962911606, -0.012139800004661083, 0.009337016381323338, -0.027538081631064415, 0.006144431885331869, 0.010464759543538094, -0.0014804948586970568, -0.015278187580406666, -0.08894632011651993, 0.01742098294198513, -0.040977366268634796, -0.011385279707610607, -0.06272076070308685, -0.029247591271996498, -0.0012193892616778612, -0.014152689836919308, -0.007403418887406588, -0.06355687975883484, -0.014069633558392525, 0.008056963793933392, 0.0070529538206756115, -0.0477907694876194, 0.06723205745220184, -0.05428415164351463, 0.09168963134288788, -0.025716392323374748, 0.035031456500291824, 0.07903825491666794, 0.020471256226301193, -0.034903012216091156, 0.00994907971471548, -0.008261345326900482, 0.08108624070882797, -0.04249493032693863, -0.011778528802096844, 0.01890997774899006, 0.05776425078511238, -0.007232497446238995, 0.031407907605171204, -0.006449750624597073, 0.007617120165377855, -0.013522578403353691, 0.0678093433380127, 0.02116544544696808, -0.01767420768737793, -0.01779302768409252, 0.05593499168753624, 0.016777517274022102, 0.010376804508268833, -0.08329816162586212, -0.019655292853713036, -0.006902060471475124, -0.02815983258187771, -0.10932659357786179, -0.014642579481005669, -0.015124247409403324, 0.07178468257188797, -0.043648611754179, 0.015058656223118305, 0.11573637276887894, -0.031638361513614655, -0.0960984081029892, -0.0025492366403341293, 0.007143187802284956, 0.04060962423682213, 0.014369376003742218, -0.05285467579960823, 0.04302285239100456, -0.03603930026292801, 0.04438247159123421, -0.010828269645571709, -5.304393368987803e-08, -0.0554424412548542, -0.04591253027319908, 0.036294132471084595, 0.015228885225951672, 0.0346713662147522, -0.007896043360233307, -0.06131962686777115, 0.08815780282020569, 0.06478160619735718, 0.03904442861676216, 0.008517157286405563, -0.08221577107906342, -0.06201160326600075, 0.06941172480583191, 0.0517238974571228, -0.026309583336114883, -0.01792844757437706, 0.08185357600450516, -0.010912716388702393, -0.01818065531551838, 0.013741712085902691, 0.04999786242842674, 0.01454977411776781, -0.0646161213517189, 0.017293328419327736, -0.08805179595947266, 0.016691815108060837, 0.0655602365732193, -0.008528552018105984, -0.08060070872306824, -0.07382239401340485, 0.011530095711350441, 0.11427077651023865, -0.00010619968816172332, 0.045477189123630524, -0.05248109996318817, 0.053896382451057434, 0.10093006491661072, -0.021405717357993126, 0.02581324428319931, -0.07720296084880829, 0.04394708573818207, 0.01133133377879858, 0.05119842290878296, -0.02569698914885521, 0.023630138486623764, -0.016851289197802544, 0.01014233473688364, -0.033980563282966614, -0.025948621332645416, 0.0033480478450655937, -0.04023803770542145, 0.07732775807380676, 0.039283137768507004, -0.01853370852768421, 0.13016974925994873, 0.01699444092810154, -0.1443551629781723, -0.048925481736660004, 0.018619276583194733, -0.05576439946889877, -0.03166110813617706, 0.021603886038064957, 0.051080141216516495]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>assessments</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Graduate Business Analyst</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sprint Reply</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>As a Graduate Business Analyst, you'll support the accelerated growth of the organization by helping to develop new propositions, creating use cases for intelligent automation tools, acquiring new clients and supporting business development, and delivering projects. You'll collaborate with clients, contribute to the selection of analysis and delivery methods, and more.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sprint Reply is a Reply Group company that specializes in Intelligent Process Automation, creating automation platforms to solve business problems and support clients in their transformation towards the Intelligent Enterprise.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://career5.successfactors.eu/sfcareer/jobreqcareer?jobId=9996&amp;company=C0004534147P</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>no longer hiring</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[-0.05981088802218437, 0.0189900491386652, 0.016492515802383423, 0.018207842484116554, -0.011496034450829029, -0.045203909277915955, 0.037243857979774475, 0.0398775115609169, -0.008095948956906796, 0.026744283735752106, -0.022465674206614494, 0.011990281753242016, 0.0016476429300382733, -0.02359849400818348, -0.019975462928414345, 0.053920138627290726, 0.0788722112774849, -0.16677546501159668, 0.0005475830985233188, -0.045850034803152084, -0.08056791126728058, 0.012652134522795677, -0.02756085805594921, 0.0033937422558665276, -0.006411571055650711, -0.0006555786821991205, -0.009712054394185543, -0.03113487921655178, -0.040229205042123795, -0.02480539120733738, -0.002101050689816475, 0.06790163367986679, 0.06724270433187485, 0.030266601592302322, 0.009173216298222542, 0.08907274156808853, 0.020420661196112633, 0.04548445716500282, 0.07454975694417953, -0.04235474392771721, -0.05584332346916199, -0.07173612713813782, -0.05854742228984833, 0.03580138087272644, 0.14968310296535492, -0.08551254868507385, -0.05818929150700569, -0.025485320016741753, -0.0430462621152401, 0.028681159019470215, -0.08019867539405823, -0.01886710710823536, -0.03173055499792099, -0.03302228823304176, -0.07089986652135849, 0.10708341747522354, 0.07129805535078049, 0.02064019814133644, 0.011927657760679722, -0.03162037953734398, 0.050943523645401, -0.03439132496714592, 0.027114413678646088, 0.0182921402156353, 0.017749816179275513, 0.017557868734002113, -0.053198203444480896, 0.015200026333332062, -0.03859221190214157, -0.07047528028488159, 0.02130703441798687, -0.08195840567350388, -0.06890594959259033, 0.10279771685600281, 0.020355476066470146, 0.014811478555202484, 0.04990389943122864, 0.03134850040078163, 0.10249204188585281, -0.01811152510344982, -0.005524137988686562, -0.020933182910084724, -0.0618700347840786, 0.04080666974186897, -0.05369837209582329, -0.046898189932107925, 0.013497785665094852, 0.03264094144105911, 0.039694953709840775, 0.0013258049730211496, 0.025651386007666588, -0.020587455481290817, -0.03186091408133507, 0.001992353703826666, -0.04189165309071541, 0.010848830454051495, -0.1028272807598114, -0.13961507380008698, 0.02115800231695175, 0.01800469122827053, -0.02899039350450039, 0.018953727558255196, 0.0204508975148201, -0.03893548250198364, -0.11117023974657059, 0.024483446031808853, -0.005876697134226561, 0.00796586275100708, 0.03226470574736595, -0.05304831638932228, 0.019340218976140022, 0.037095069885253906, 0.004094130825251341, -0.004004690796136856, 0.04449084401130676, -0.023604659363627434, -0.03943634778261185, 0.05820551514625549, 0.1416284590959549, -0.014703693799674511, 0.03654582053422928, 0.07490339130163193, -0.0741584450006485, -0.0033940055873245, -0.002241880400106311, 0.004845946095883846, -0.034739237278699875, 2.6371136693618164e-34, -0.02685299888253212, 0.03344999998807907, 0.017619233578443527, 0.019784074276685715, 0.036386508494615555, -0.03713458031415939, -0.006577903404831886, 0.005828352179378271, -0.016523577272892, 0.006796920206397772, -0.058661457151174545, 0.032847072929143906, 0.11681701987981796, -0.01942301355302334, -0.04769044741988182, -0.04467696696519852, -0.007820798084139824, 0.054387569427490234, 0.016096584498882294, -0.07683410495519638, 0.01801171898841858, -0.034381136298179626, -0.04146558418869972, -0.028877615928649902, 0.0638023316860199, 0.037517908960580826, 0.08578255772590637, -0.015868909657001495, 0.06177820265293121, 0.014359868131577969, 0.0005326957325451076, -0.007351745385676622, -0.10060305893421173, 0.03874688595533371, 0.006454522255808115, 0.0030998748261481524, -0.0477106049656868, -0.04913349077105522, -0.04454277455806732, 0.010715478099882603, -0.04383954405784607, 0.0792321190237999, -0.021275155246257782, 0.0018179150065407157, -0.010903749614953995, 0.001903995405882597, 0.04025997966527939, -0.012936153449118137, 0.1118701919913292, -0.01595149375498295, -0.07541652768850327, -0.08002471923828125, 0.04080021008849144, -0.03723817691206932, 0.045078862458467484, 0.014789371751248837, -0.02189827524125576, -0.025669138878583908, 0.04852418228983879, -0.047548308968544006, -0.019689254462718964, 0.005373495630919933, -0.10559825599193573, -0.007970429956912994, -0.012416692450642586, -0.0296481940895319, 0.01152675412595272, 0.013326345942914486, 0.13155440986156464, 0.011887701228260994, 0.05180976167321205, -0.019787395372986794, 0.1631271243095398, 0.026950832456350327, -0.025875544175505638, -0.047707002609968185, -0.03294902294874191, 0.03434818610548973, 0.00825910922139883, -0.0074126236140728, -0.017391854897141457, 0.0051646968349814415, -0.0383303128182888, -0.02021273598074913, 0.11380956321954727, -0.026348777115345, 0.011229223571717739, 0.004946887958794832, -0.011308434419333935, 0.04839875176548958, -0.05869355425238609, 0.057516373693943024, -0.07825441658496857, 0.1760009080171585, -0.03113795816898346, -1.5217166508963106e-33, 0.016233915463089943, 0.04224241152405739, -0.03932321071624756, 0.0024332297034561634, 0.09073211997747421, -0.02466077357530594, 0.05909150093793869, 0.041277170181274414, 0.00014212154201231897, -0.003957243636250496, -0.02722417376935482, -0.011196024715900421, -0.01317940466105938, 0.02095276117324829, -0.0057257916778326035, -0.026687005534768105, 0.03753389045596123, -0.03923178091645241, -0.10381194949150085, 0.020680701360106468, -0.07095692306756973, -0.006734822876751423, -0.0054638683795928955, 0.017063135281205177, 0.06151703745126724, 0.015299835242331028, 0.0028569241985678673, 0.04646950215101242, -0.009474663995206356, 0.0007597152725793421, 0.02512151189148426, -0.007335321046411991, -0.05934663861989975, 0.03850822523236275, 0.010287811979651451, 0.046789877116680145, 0.042483892291784286, -0.06898017227649689, -0.042940739542245865, -0.019154483452439308, 0.08258963376283646, -0.03743286430835724, -0.012493298389017582, 0.04683926701545715, 0.031932733952999115, 0.04267372936010361, 0.08652608096599579, -0.029198937118053436, -0.02917170338332653, -0.04590491205453873, -0.006950246635824442, -0.029092948883771896, 0.044730328023433685, -0.032681647688150406, 0.02409617230296135, -0.016612201929092407, 0.08798631280660629, -0.07749223709106445, 0.000535507861059159, 0.06592382490634918, 0.057397302240133286, 0.002066022949293256, 0.1882529854774475, 0.0036793570034205914, 0.021426929160952568, 0.037039000540971756, 0.03848499804735184, 0.013486500829458237, -0.06632157415151596, -0.02871079184114933, 0.10535107553005219, 0.006233712192624807, -0.047770578414201736, -0.025270558893680573, 0.032885871827602386, 0.03744900971651077, -0.02986716665327549, -0.04997553676366806, -0.10861794650554657, -0.021176159381866455, 0.012448740191757679, -0.012867877259850502, -0.03242836892604828, 0.14435286819934845, -0.06069722771644592, -0.12091110646724701, -0.06262200325727463, 0.022005312144756317, 0.035873059183359146, 0.023945560678839684, -0.10021483153104782, 0.000926659326069057, -0.05098656564950943, 0.08671090006828308, 0.006773888599127531, -4.922815222130339e-08, -0.0667300820350647, 0.05031304806470871, 0.03321097046136856, 0.011705657467246056, 0.048981234431266785, 0.056806087493896484, -0.030685503035783768, -0.04931618273258209, 0.06952033936977386, -0.036585185676813126, -0.0822758823633194, -0.05838409811258316, -0.04570838063955307, 0.03891567885875702, 0.06215234100818634, 0.033850204199552536, -0.043266985565423965, -0.03838475048542023, 0.02447843924164772, 0.010171633213758469, 0.15076085925102234, 0.022516317665576935, -0.038372840732336044, -0.027323871850967407, 0.018995018675923347, -0.051650624722242355, -0.07094573229551315, 0.015109906904399395, -0.005772755481302738, -0.08021239191293716, -0.05681796744465828, 0.049950502812862396, 0.043592557311058044, -0.02590087801218033, 0.05085013061761856, 0.03860578313469887, 0.07938928157091141, -0.031407780945301056, 0.005897367838770151, -0.03129115700721741, -0.07218194007873535, -0.000721006013918668, -0.00478822086006403, -0.03440243378281593, -0.02250158227980137, -0.022221138700842857, -0.04229722544550896, -0.02907126396894455, -0.0297875814139843, 0.008924142457544804, -0.016638943925499916, -0.0899827629327774, -0.017433442175388336, 0.026915378868579865, 0.0055646817199885845, 0.01555449515581131, 0.028550870716571808, -0.1439105123281479, 0.005144818685948849, 0.01843913644552231, 0.060572072863578796, -0.015439893119037151, 0.027243705466389656, 0.006799852009862661]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>rejected</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Product Analyst</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The Association</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Conduct research, document requirements, perform complex data analysis, support project management, assist leaders with reports, presentations, and business cases, engage with internal stakeholders, track performance, conduct market analysis, analyze data, prepare analysis and reports, and coach/ guide other analysts.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>The Association is a global organization transforming the accounting and finance profession, providing quality education, resources, and training.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Not Found.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Not Found.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Jun 26, 2024.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://aicpa.referrals.selectminds.com/jobs/product-analyst-2883?src=JB-10180</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[-0.007402987219393253, -0.038597214967012405, -0.08856050670146942, -0.018324660137295723, -0.025279061868786812, 0.07181201130151749, 0.04710090532898903, -0.006698077078908682, -0.046853505074977875, -0.06013096868991852, -0.06078155338764191, -0.0432283915579319, -0.02750742807984352, 0.046655844897031784, -0.06080866605043411, 0.0904163345694542, 0.019151611253619194, -0.06632020324468613, -0.06365164369344711, -0.09271137416362762, -0.04659633710980415, 0.0016213511116802692, 0.06136178597807884, 0.04825560748577118, -0.1134277880191803, 0.0196820255368948, 0.02729107066988945, -0.055147428065538406, -0.014524047262966633, -0.08071961998939514, -0.01934710703790188, -0.031516142189502716, 0.1327376514673233, 0.018954578787088394, 0.05462637171149254, 0.08085997402667999, -0.028622761368751526, 0.014451204799115658, 0.03819305822253227, 0.01455290149897337, 0.048888418823480606, -0.04173155501484871, -0.06866808980703354, -0.006543566007167101, 0.08280670642852783, -0.0024190926924347878, 0.03544863313436508, -0.0010116607882082462, -0.034100279211997986, 0.03402332589030266, -0.07514391094446182, -0.03364833816885948, 0.008096820674836636, -0.07632151246070862, -0.04894067347049713, 0.024094780907034874, 0.011928597465157509, 0.0016229727771133184, 0.009490103460848331, -0.016933603212237358, 0.02176905795931816, 0.009848816320300102, 0.011310117319226265, 0.09310650825500488, 0.05101710557937622, 0.003383561735972762, -0.017749452963471413, 0.10342962294816971, -0.10405535250902176, -0.06386695057153702, -0.004214310087263584, -0.07901286333799362, -0.05266386643052101, -0.005330993328243494, -0.00507209450006485, 0.04158198460936546, -0.0015522005269303918, -0.028299480676651, 0.08061299473047256, 0.011288145557045937, 0.013311037793755531, 0.03260968625545502, -0.027831457555294037, 0.06648619472980499, -0.017316067591309547, -0.07038021832704544, 0.001676514744758606, -0.03724384307861328, 0.01492595300078392, 0.018699057400226593, 0.005599452648311853, -0.0005875892238691449, 0.037224750965833664, 0.014103531837463379, -0.014315887354314327, -0.006588765420019627, 0.019421353936195374, -0.0614875927567482, 0.03813324496150017, 0.026908142492175102, -0.0444442443549633, 0.004659028258174658, 0.005402283277362585, 0.02154795452952385, -0.20091776549816132, -0.05752479285001755, -0.04311883822083473, 0.06943659484386444, 0.035006437450647354, 0.0743420198559761, -0.04043247550725937, 0.06915277987718582, -0.12947224080562592, -0.007543888408690691, 0.038432758301496506, -0.012631651945412159, -0.05239863693714142, 0.029570987448096275, 0.04497608169913292, -0.038778968155384064, 0.006716000847518444, 0.07862145453691483, 0.07369343191385269, 0.035687290132045746, -0.048605483025312424, 0.058091647922992706, -0.08203914016485214, -3.820824266518871e-33, -0.07046844810247421, -0.004903830122202635, 0.017767589539289474, 0.055805522948503494, -0.09483411908149719, -0.00909220241010189, -0.03999119624495506, 0.042813464999198914, 0.00848609209060669, 0.03892717882990837, 0.0016294927336275578, 0.10755578428506851, 0.06148277968168259, 0.007529296446591616, -0.041645072400569916, 0.06257300823926926, 0.04758977144956589, 0.07435403019189835, -0.013892083428800106, -0.011213305406272411, -0.017458535730838776, -0.008650844916701317, 0.02771148458123207, 0.04060791805386543, 0.025246229022741318, 0.0035185127053409815, 0.04580756649374962, 0.020123135298490524, 0.01375710777938366, 0.020364943891763687, 0.07879415899515152, -0.026396634057164192, -0.10739966481924057, -0.05664205178618431, -0.03129405900835991, 0.023433303460478783, -0.07005424797534943, -0.06981830298900604, 0.046643976122140884, 0.0357075035572052, -0.0001948424760485068, -0.022175297141075134, 0.003734784899279475, -0.04988354071974754, 0.00366647494956851, 0.027461057528853416, -0.014521708711981773, -0.011985591612756252, 0.06061931326985359, 0.07180610299110413, -0.06243452802300453, -0.12471593916416168, -0.007950388826429844, -0.057095933705568314, 0.08568073064088821, -0.007441791705787182, -0.014099466614425182, -0.05546289682388306, 0.02926708571612835, -0.053757403045892715, -0.032802920788526535, 0.07851537317037582, -0.09651559591293335, -0.01821613498032093, -0.14730671048164368, -0.025900835171341896, 0.011450788006186485, 0.032944682985544205, 0.03281310573220253, -0.016772449016571045, -0.006143729202449322, -0.004497999791055918, 0.09844089299440384, 0.03495766595005989, -0.023981520906090736, -0.028331579640507698, -0.086407870054245, 0.04623958095908165, 0.0358288399875164, 0.08398541808128357, 0.0010520484065636992, 0.06593988835811615, 0.06316164135932922, -0.010419405065476894, 0.059999532997608185, -0.07711488753557205, -0.008200092241168022, 0.00829586386680603, -0.004850250668823719, 0.05640340968966484, -0.04726314917206764, 0.049971841275691986, -0.053557608276605606, 0.14681702852249146, 0.02169947512447834, -6.234447347937088e-34, 0.042005397379398346, -0.01436872873455286, 0.060636118054389954, -0.05336197093129158, 0.08918733149766922, -0.05310956761240959, 0.047328148037195206, -0.028387147933244705, 0.06280383467674255, 0.05888328328728676, -0.06318212300539017, -0.014732827432453632, 0.00556511664763093, 0.006466880906373262, 0.009403764270246029, -0.040589913725852966, -0.003717747051268816, -0.06305109709501266, -0.046177688986063004, -0.020021947100758553, -0.0012580044567584991, -0.05926746875047684, 0.0790971964597702, -0.060113660991191864, -0.0039659421890974045, -0.018935419619083405, 0.06391455233097076, -0.02374076470732689, 0.03468276560306549, 0.006889180280268192, -0.0142455343157053, -0.012540417723357677, -0.08877673000097275, 0.04333695024251938, -0.06688104569911957, -0.006184250582009554, -0.002054707147181034, -0.11383695155382156, 0.013684296980500221, -0.0736360251903534, 0.030685339123010635, -0.031210724264383316, 0.014558486640453339, 0.03828195482492447, 0.017540857195854187, 0.023527903482317924, 0.07092602550983429, -0.048216138035058975, 0.037525005638599396, -0.05500001087784767, -0.014967385679483414, 0.030481215566396713, 0.052354611456394196, -0.04921342059969902, -0.010359629057347775, 0.0596456341445446, 0.05657322332262993, -0.057265035808086395, -0.020763952285051346, -0.01013929396867752, 0.07442658394575119, 0.03944440186023712, 0.09777016192674637, 0.03507613763213158, -0.04677458480000496, -0.014269232749938965, 0.026340976357460022, 0.027518216520547867, -0.035928595811128616, -0.02949357032775879, 0.06103992089629173, -0.03194069489836693, -0.06945110857486725, -0.011843503452837467, -0.06852351129055023, 0.01442775409668684, -0.0856517106294632, -0.066163569688797, -0.019624851644039154, -0.014356200583279133, 0.020479973405599594, 0.04177515208721161, 0.03857695683836937, 0.014649275690317154, 0.01671529933810234, -0.006889489945024252, -0.0013637796510010958, 0.041048284620046616, 0.03976508229970932, -0.009853185154497623, -0.03864813223481178, -0.015160993672907352, -0.07219866663217545, 0.062399495393037796, 0.01305271778255701, -5.762692723010332e-08, -0.11090084165334702, -0.03770507499575615, 0.10757581889629364, 0.00854888278990984, 0.005938549991697073, -0.07162025570869446, -0.08692969381809235, -0.028433695435523987, 0.05463165044784546, 0.0418052151799202, 0.049404170364141464, -0.03383857384324074, -0.10096391290426254, 0.03828555718064308, 0.052850402891635895, -0.05640513077378273, -0.07418788224458694, 0.044549860060214996, 0.03268159180879593, 0.03284669667482376, 0.06628898531198502, 0.03905302658677101, 0.005937275942414999, -0.003408256219699979, -0.0029667785856872797, -0.10644195228815079, -0.03377935290336609, 0.03615732863545418, -0.007607762236148119, -0.12940151989459991, -0.017511405050754547, 0.044753026217222214, 0.05647532641887665, -0.020517148077487946, -0.041502855718135834, -0.024097148329019547, 0.08655241131782532, 0.03846803307533264, -0.062411680817604065, 0.005936815403401852, -0.10402479767799377, 0.021944185718894005, 0.05350865051150322, 0.022712375968694687, -0.029241757467389107, 0.051231976598501205, -0.04598679021000862, 0.032634466886520386, 0.013948213309049606, -0.011219627223908901, -0.02193177118897438, -0.05237076058983803, 0.0034937807358801365, 0.042847149074077606, -0.014833196997642517, 0.04822397232055664, -0.003869828535243869, -0.07922577857971191, -0.02628563530743122, 0.004022584296762943, 0.042452532798051834, -0.08728588372468948, 0.004704395309090614, 0.031919319182634354]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>not_applied</t>
         </is>
       </c>
     </row>

--- a/jobs_exported.xlsx
+++ b/jobs_exported.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,203 +502,203 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025 Full-Time Analyst Program - EMEA.</t>
+          <t>Graduate Consultant Intake 2024.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BlackRock.</t>
+          <t>Quick Release (an Alten company).</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EMEA.</t>
+          <t>London, England, United Kingdom.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The program is a two-year experience to empower and support Analysts in connecting their personal passions and strengths to BlackRock's mission, principles, and purpose. The program includes an orientation, joining teams, ongoing training, and professional development to contribute to BlackRock's collective purpose. Candidates can apply for up to two functions within the program.</t>
+          <t>Work with clients to develop insights into people, process, system data; maintain relationships; support project plans; develop and implement solutions; manage client expectations.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Quick Release specializes in product data management and consultancy across various industries.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Not Found.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Not Found.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Not Found.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2024-07-10.</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://blackrock.tal.net/vx/brand-3/spa-1/candidate/so/pm/1/pl/1/opp/8160-2025-Full-Time-Analyst-Program-EMEA/en-GB</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>do this  ASAP</t>
-        </is>
-      </c>
+          <t>https://apply.workable.com/quickrelease/j/0FF460B38D/</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[-0.033743176609277725, -0.048345617949962616, -0.04582605138421059, 0.013140936382114887, -0.00043513879063539207, -0.015164581127464771, -0.10559264570474625, 0.007391585037112236, -0.0623038113117218, -0.08784788846969604, -0.015139295719563961, -0.04571225866675377, -0.041405774652957916, -0.028423428535461426, -0.05413978546857834, 0.036913663148880005, 0.03060143068432808, -0.12113075703382492, 0.04774594306945801, -0.08333242684602737, -0.05349944904446602, -0.026873230934143066, -0.04815082252025604, -0.02028927579522133, 0.0014181418810039759, 0.044124800711870193, -0.04913049936294556, -0.028951171785593033, -0.03853727877140045, -0.053328972309827805, 0.029082005843520164, -5.544238956645131e-05, 0.09907113760709763, 0.038419876247644424, 0.07208051532506943, 0.09523702412843704, -0.054625652730464935, 0.047536879777908325, -0.020030422136187553, -0.022603219375014305, -0.059872303158044815, -0.044038835912942886, -0.052203256636857986, 0.05772116780281067, 0.012114507146179676, -0.104239322245121, 0.08666917681694031, -0.05901888385415077, -0.037115879356861115, 0.030139373615384102, -0.07813785970211029, -0.11146333813667297, 0.015209292992949486, -0.04517224431037903, 0.021418193355202675, 0.05772911384701729, 0.03642810508608818, 0.0023434890899807215, -0.0045218993909657, -0.0284180399030447, 0.03661283850669861, -0.006058202590793371, -0.010248485952615738, 0.007699958980083466, 0.08357939124107361, -0.01504268404096365, 0.0028167208656668663, 0.03713802993297577, -0.03549402952194214, -0.06463000178337097, 0.03591427579522133, -0.09128601104021072, -0.08588709682226181, 0.044679779559373856, 0.010283307172358036, 0.13696134090423584, 0.08258771896362305, 0.01805289089679718, 0.13758234679698944, -0.0871838852763176, 0.025577416643500328, -0.055596817284822464, -0.0366859957575798, 0.018358996137976646, -0.02246084250509739, -0.01606466807425022, -0.017656702548265457, 0.05017930269241333, 0.04534928873181343, 0.0017415721667930484, -0.00966441910713911, 0.0027401060797274113, 0.018950436264276505, -0.037208981812000275, 0.016445331275463104, -0.0031954955775290728, -0.07462989538908005, -0.03491680324077606, -0.03750348836183548, 0.03597944602370262, -0.07508028298616409, -0.0034927166998386383, 0.025378765538334846, -0.02279968000948429, -0.1519404947757721, -0.0334007628262043, 0.007413189392536879, 0.043899357318878174, 0.004648895468562841, -0.002632536692544818, 0.015588360838592052, 0.05052582919597626, -0.012563342228531837, -0.0027032264042645693, 0.06694953143596649, 0.04260191321372986, -0.08911026269197464, 0.05600409582257271, 0.11271732300519943, 0.03410647064447403, 0.008458830416202545, 0.06804075837135315, 0.03352232277393341, -0.025033406913280487, -0.04733284190297127, 0.007784607354551554, -0.08863060176372528, -4.4783429091230715e-33, -0.03788352012634277, 0.011514340527355671, -0.004670565016567707, 0.0705268383026123, 0.010261401534080505, -0.02506116032600403, -0.008492971770465374, 0.04498014971613884, -0.03323822095990181, 0.08934672176837921, 0.00696595897898078, 0.11406432092189789, 0.039476796984672546, 0.04462333396077156, -0.011903868988156319, -0.04863271862268448, 0.05833371728658676, 0.0484379343688488, -0.012043274939060211, -0.02039942517876625, 0.06520663946866989, -0.10908326506614685, -0.043450139462947845, -0.005750551354140043, 0.010391389019787312, -0.03272391855716705, 0.023627661168575287, -0.0029343105852603912, 0.040900494903326035, 0.014601020142436028, -0.016780786216259003, 0.022982247173786163, -0.04299526289105415, -0.04924461245536804, 0.08587411791086197, -0.0007898451876826584, -0.025183329358696938, -0.02298629842698574, 0.024111054837703705, 0.00526385335251689, 0.002692724112421274, 0.006909716874361038, 0.013217111118137836, -0.11253891885280609, 0.03522714972496033, -0.02284696139395237, 0.02689361199736595, -0.07132551819086075, 0.0672745481133461, 0.033705100417137146, -0.07296884804964066, -0.0721363052725792, 0.01342732459306717, -0.03353992477059364, 0.04739994555711746, -0.008325611241161823, -0.01680983416736126, -0.04026823118329048, 0.04629528895020485, -0.041612330824136734, 0.02802114561200142, 0.060919277369976044, -0.11214371025562286, -0.02939079888164997, -0.11196152120828629, 0.0359991081058979, -0.0062381853349506855, 0.059845078736543655, 0.050060875713825226, 0.055870719254016876, 0.011318741366267204, -0.047046687453985214, 0.057631466537714005, 0.01550787128508091, 0.0022498241160064936, -0.0398053377866745, -0.014821785502135754, 0.03136797621846199, 0.06087091565132141, 0.04179196059703827, 0.022251516580581665, 0.03920619562268257, -0.006583237089216709, -0.03721705451607704, 0.07984662055969238, -0.0080028735101223, 0.00670284079387784, -0.0023283464834094048, 0.010731954127550125, 0.0709858387708664, -0.06200527027249336, 0.02147955633699894, -0.09665896743535995, 0.18524962663650513, 0.06818737834692001, 7.034860277688696e-34, 0.025537416338920593, -0.026821468025445938, 0.0637495368719101, -0.053762584924697876, 0.09994800388813019, 0.015113556757569313, 0.0728374570608139, 0.011677684262394905, 0.05884880572557449, 0.07701443135738373, 0.041575681418180466, 0.01486940123140812, -0.006551679689437151, -0.014281027019023895, 0.037320319563150406, -0.01384839229285717, -0.00990449357777834, -0.037720438092947006, -0.042969003319740295, 0.002496367320418358, 0.028796613216400146, -0.031100351363420486, -0.05621267482638359, 0.04142694175243378, 0.03923017159104347, 0.011183420196175575, 0.09440254420042038, -0.029290786013007164, -0.028506342321634293, 0.006825007498264313, -0.03477098047733307, -0.05119973421096802, -0.10830988734960556, 0.064421646296978, -0.06805102527141571, 0.009789342060685158, 0.015475102700293064, -0.009641352109611034, -0.04000893607735634, -0.03761162608861923, 0.06423433870077133, -0.004357772879302502, -0.01734253391623497, 0.05525343120098114, -0.043159592896699905, 0.07549973577260971, 0.05397279933094978, 0.006339446175843477, 0.032464854419231415, -0.0929417610168457, 0.023142889142036438, -0.043590448796749115, 0.041109636425971985, -0.07213156670331955, 0.02409651316702366, -0.02065020613372326, 0.08219419419765472, 0.005277693271636963, -0.03720439597964287, 0.022947115823626518, 0.03517968952655792, 0.01891339011490345, 0.02497456967830658, -0.013141949661076069, -0.04688163474202156, -0.02513211779296398, 0.030022207647562027, 0.04452364146709442, -0.0891190841794014, -0.010366219095885754, 0.03552917391061783, 0.015844298526644707, -0.053384579718112946, -0.033503204584121704, -0.11453506350517273, 0.06686800718307495, -0.05195852369070053, -0.07015703618526459, -0.029312388971447945, -0.08458513766527176, 0.013147525489330292, -0.02241380326449871, 0.02020859904587269, 0.06118416041135788, 0.022399306297302246, 0.016329802572727203, -0.028193257749080658, 0.040509942919015884, 0.051756974309682846, -0.037277016788721085, -0.09342068433761597, -0.0015448156045749784, -0.018360916525125504, 0.051383353769779205, 0.035407982766628265, -5.958699844654802e-08, -0.015901610255241394, 0.008411332964897156, 0.07155180722475052, -0.005119251552969217, 0.08424974232912064, -0.015896299853920937, 0.012719310820102692, -0.050868794322013855, 0.11915598064661026, 0.030075710266828537, -0.01595495641231537, -0.03893915191292763, -0.02242128551006317, 0.007325269281864166, -0.012719761580228806, 0.01198244746774435, 0.015816057100892067, 0.011701284907758236, 0.056125156581401825, 0.018610572442412376, 0.00427672453224659, 0.007073940709233284, 0.03820556029677391, -0.027791349217295647, -0.021298691630363464, -0.08704107254743576, -0.06978296488523483, 0.07244765013456345, 0.02060604654252529, -0.03819208964705467, 0.03742515295743942, 0.02318674698472023, 0.07983800023794174, -0.09362082928419113, 0.0017527777235955, -0.013721000403165817, 0.0550810806453228, 0.02210722491145134, -0.0848151370882988, -0.05268773436546326, -0.05256568640470505, 0.010413920506834984, 0.08267369866371155, -0.0034930824767798185, -0.05437001213431358, 0.005121666472405195, -0.13286632299423218, 0.040459927171468735, -0.020198224112391472, -0.07554101943969727, 0.02813813090324402, -0.0055683208629488945, -0.02049284055829048, 0.04921826720237732, 0.05880393460392952, 0.052497342228889465, -0.013709556311368942, -0.05425423011183739, -0.04925579950213432, 0.0165861789137125, 0.07876241952180862, -0.13480374217033386, -0.035543303936719894, -0.010141716338694096]</t>
+          <t>[0.028821315616369247, -0.05463319271802902, 0.016218185424804688, -0.046758923679590225, 0.006527218036353588, 0.0011953896610066295, 0.009383334778249264, -0.0025726156309247017, -0.05305201932787895, -0.032532673329114914, 0.043058983981609344, 0.031622789800167084, -0.049951307475566864, 0.01384288351982832, -0.00681822607293725, 0.01893598958849907, 0.01835174299776554, -0.10951142013072968, 0.01714215613901615, -0.041165873408317566, -0.06997046619653702, -0.02794947475194931, -0.04197728633880615, 0.027849189937114716, -0.028584668412804604, 0.001751332194544375, 0.028837965801358223, -0.028993260115385056, 0.0032907011918723583, -0.03881525993347168, 0.00792084913700819, 0.06581765413284302, -0.01390432845801115, -0.015617789700627327, 0.05161402001976967, 0.13598734140396118, -0.029867621138691902, 0.044108517467975616, 0.010688447393476963, 0.01961255446076393, -0.023014888167381287, -0.0873958095908165, -0.06971146911382675, 0.05794553458690643, 0.0641128346323967, 0.0012740110978484154, 0.015173169784247875, 0.023687694221735, -0.06735669076442719, -0.017559483647346497, -0.1162879467010498, -0.051073938608169556, 0.0024934967514127493, -0.04339389130473137, -0.0635480284690857, 0.03666377812623978, -0.020041363313794136, 0.03378305211663246, -0.025582216680049896, 0.001335676177404821, -0.029260993003845215, -0.02011413313448429, -0.02920459397137165, -0.032310131937265396, 0.06013227254152298, -0.004110316745936871, 0.02691674791276455, 0.03304092213511467, -0.03286898881196976, -0.09858627617359161, -0.03524766117334366, -0.10175325721502304, -0.10094977915287018, 0.07862207293510437, -0.009905267506837845, 0.032102443277835846, 0.01743382401764393, 0.006757479626685381, 0.05054030194878578, -0.06652747839689255, 0.0596056692302227, 0.08152752369642258, -0.04332313314080238, 0.09756653010845184, -0.08719176054000854, -0.05311299487948418, 0.03366365656256676, 0.03988075256347656, 0.015605815686285496, -0.04457072913646698, 0.0071792444214224815, -0.03675324097275734, -0.01651882752776146, 0.06454675644636154, -0.10023906081914902, -0.002951582195237279, 0.03102184645831585, -0.026106011122465134, -0.033265985548496246, 0.012177713215351105, -0.039576802402734756, 0.028042778372764587, -0.03982388600707054, 0.023291759192943573, -0.11823217570781708, -0.02571151778101921, -0.05181242153048515, 0.0885193943977356, 0.09475204348564148, 0.044691070914268494, -0.029210951179265976, 0.052850231528282166, -0.1336946040391922, -0.03683720529079437, 0.04927212744951248, -0.06763431429862976, -0.15563970804214478, 0.033773839473724365, 0.04995802417397499, 0.034160152077674866, -0.049172382801771164, 0.11470341682434082, 0.0253139641135931, -0.04982730373740196, -0.06476136296987534, 0.05478993058204651, -0.058267198503017426, -1.954966858904454e-33, -0.015161681920289993, 0.010661452077329159, 0.005316845141351223, 0.10122113674879074, -0.021494515240192413, -0.06381306052207947, 0.006932672578841448, 0.08616828173398972, -0.018707145005464554, 0.0008645697380416095, 0.05430468171834946, 0.03498143330216408, -0.02852662093937397, -0.030970456078648567, 0.00660645542666316, 0.00959021132439375, 0.0720977932214737, 0.10261078178882599, -0.01904073730111122, 0.010610015131533146, -0.057370077818632126, -0.05771069601178169, 0.029838837683200836, 0.03895125910639763, 0.07907595485448837, 0.002191489562392235, 0.022063586860895157, 0.06955127418041229, 0.13521221280097961, 0.015708182007074356, 0.016817577183246613, -0.02928341180086136, 0.00020394551393110305, -0.03913364186882973, -0.016620036214590073, -0.01813998632133007, -0.0959697961807251, -0.10483743250370026, 0.02992968074977398, 0.010053548030555248, -0.06862231343984604, 0.052464086562395096, 0.023400869220495224, -0.058120060712099075, -0.010372440330684185, -0.02210843749344349, -0.009706388227641582, -0.015483750961720943, 0.06864187866449356, 0.00014384574024006724, -0.05843165144324303, -0.012048397213220596, -0.015194196254014969, 0.04292566329240799, -0.0007701466674916446, 0.013175631873309612, 0.026554711163043976, -0.03300679847598076, 0.010624321177601814, -0.011428062804043293, -0.055770136415958405, 0.06441700458526611, -0.0796278566122055, -0.05215831100940704, -0.0029055189806967974, -0.04979422315955162, 0.031035134568810463, -0.03237389028072357, 0.02406301349401474, 0.014363950118422508, -0.026616232469677925, 0.04104357957839966, 0.15969157218933105, -0.011485692113637924, -0.002523729344829917, 0.006231584586203098, -0.07181385159492493, 0.02193344756960869, 0.051494207233190536, 0.06740355491638184, 0.03508118540048599, 0.04178998991847038, 0.022141221910715103, 0.0097860312089324, 0.06884873658418655, 0.007581607438623905, 0.02000396139919758, 0.01179854292422533, 0.010438300669193268, 0.10014227032661438, -0.07138938456773758, 0.01835407316684723, -0.11441664397716522, 0.10435076802968979, -0.002263243542984128, -4.694983211901757e-34, 0.03364329785108566, -0.07394959032535553, 0.02453894540667534, -0.01088892761617899, 0.13919439911842346, 0.009083201177418232, -0.005405137315392494, -0.0008534760563634336, 0.01580282300710678, 0.09440606832504272, 0.004716046154499054, -0.0536639504134655, -0.017230477184057236, 0.032710153609514236, -0.00748384278267622, 0.008591358549892902, 0.015581019222736359, -0.12141726911067963, 0.00766607653349638, 0.016614306718111038, 0.03311925381422043, -0.07983457297086716, 0.02117684669792652, 0.021772461012005806, 0.011792057193815708, -0.02513825334608555, 0.01933031715452671, -0.04339374229311943, -0.00551973283290863, -0.010251780040562153, -0.0014367742696776986, -0.021101150661706924, -0.11075013875961304, -0.0023946810979396105, -0.03809179365634918, -0.008373566903173923, -0.07298415154218674, -0.040801990777254105, 0.011674159206449986, -0.01037562731653452, -0.0053802477195858955, -0.04087625816464424, -0.021222492679953575, -0.017309950664639473, 0.00702576944604516, -0.03009120561182499, 0.03976302593946457, -0.05172122269868851, 0.10480677336454391, -0.02266032248735428, 0.015413603745400906, 0.08006725460290909, 0.018295621499419212, -0.07350236177444458, 0.005413512699306011, -0.03784981742501259, 0.07248665392398834, -0.05286908522248268, -0.024734271690249443, 0.010794738307595253, 0.04844486340880394, -0.03303317353129387, 0.013705932535231113, -0.004489821847528219, -0.005711629055440426, 0.020522844046354294, 0.060603365302085876, 0.038963787257671356, -0.025426823645830154, -0.03673982247710228, 0.0559801422059536, 0.0014066926669329405, -0.00033884745789691806, -0.09995125979185104, -0.016900593414902687, 0.011009291745722294, -0.037920378148555756, -0.0975557491183281, -0.005160856526345015, -0.04967908188700676, 0.06147722154855728, -0.02356785722076893, 0.008728123269975185, 0.08073817938566208, -0.016156863421201706, -0.0902148187160492, -0.0008695757132954895, 0.004602691158652306, 0.02730928361415863, -0.009768331423401833, -0.06203024834394455, 0.013958792202174664, -0.04269663989543915, 0.04279421269893646, 0.008373450487852097, -4.9384016875819725e-08, -0.062963105738163, -0.04280631244182587, 0.05051030218601227, 0.011208989657461643, 0.07594212144613266, -0.023455677554011345, -0.06364800781011581, 0.09605235606431961, 0.07789546251296997, 0.0303361676633358, 0.0006015239632688463, -0.07646998018026352, -0.061483364552259445, 0.06864085048437119, 0.06625746935606003, -0.011536079458892345, -0.02103966660797596, 0.058273475617170334, 0.004195211920887232, 0.004025950096547604, 0.0012846002355217934, 0.06659124791622162, 0.02939637564122677, -0.08944377303123474, 0.022990617901086807, -0.06354272365570068, 0.0288857351988554, 0.07861446589231491, -0.025163613259792328, -0.08274028450250626, -0.043411459773778915, 0.005673761945217848, 0.10648847371339798, -0.007295068819075823, 0.07081899046897888, -0.02997680753469467, 0.05092984065413475, 0.10645563900470734, -0.028419217094779015, -0.005189635790884495, -0.06379332393407822, 0.04130367189645767, 0.03364454209804535, 0.06339765340089798, -0.029299434274435043, 0.03288629278540611, -0.03042941726744175, 0.004146282095462084, -0.018936581909656525, -0.058569129556417465, -0.0006159547483548522, -0.039048921316862106, 0.08665226399898529, 0.007122714072465897, 0.007428836543112993, 0.12086179852485657, 0.03170347958803177, -0.13812460005283356, -0.030969802290201187, 0.00261204713024199, -0.037072401493787766, -0.046494487673044205, 0.02470136620104313, 0.0602492094039917]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>rejected</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Full-Time Analyst Program.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gain Theory</t>
+          <t>BlackRock.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>EMEA.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>As an Analyst, you will collate, analyze, and validate key performance data from clients. You will also support and engage in client calls, collaborate with the team to establish econometric models, and participate in industry-leading training academy.</t>
+          <t>The program is a two-year experience to empower and support Analysts in connecting their personal passions and strengths to BlackRock’s mission, principles, and purpose. The program includes an orientation, joining teams, ongoing training, and professional development to contribute to BlackRock's collective purpose. Candidates can apply for up to two functions within the program.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gain Theory is a leading global marketing effectiveness and foresight consultancy that combines quality data, proprietary technology, and advanced analytics to give clients the confidence to make better informed investment decisions that drive growth.</t>
+          <t>BlackRock is a global investment management corporation.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Not Found.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Not Found.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/10/2024.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io/gaintheory/jobs/7427938002</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>https://blackrock.tal.net/vx/brand-3/spa-1/candidate/so/pm/1/pl/1/opp/8160-2025-Full-Time-Analyst-Program-EMEA/en-GB</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blackrock</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[-0.03617524728178978, -0.01684778928756714, -0.10282022505998611, 0.01091993972659111, -0.030735304579138756, 0.03704344108700752, 0.060514915734529495, 0.031208988279104233, -0.025658220052719116, -0.02244722843170166, -0.014958664774894714, 0.03325890004634857, 0.042117640376091, 0.016822515055537224, -0.005939063150435686, 0.05527690052986145, 0.04875655472278595, -0.027031250298023224, 0.04760025069117546, -0.054056599736213684, -0.10578636825084686, -0.00741778127849102, 0.0006438311538659036, 0.0038523529656231403, 0.03493031486868858, -0.07867499440908432, -0.0044821626506745815, 0.00930619053542614, 0.01004085224121809, -0.017391767352819443, -0.06818144768476486, 0.008683830499649048, 0.06341862678527832, -0.030293060466647148, -0.028015773743391037, 0.0392865315079689, -0.022466914728283882, 0.007174388505518436, 0.03377131372690201, 0.06070803478360176, 0.008789228275418282, -0.0173904150724411, 0.05810488015413284, 0.012133161537349224, 0.006526822689920664, -0.07950325310230255, 0.037651605904102325, 0.018003756180405617, -0.050845105201005936, -0.07548589259386063, -0.1237550601363182, -0.04816557466983795, 0.0021112936083227396, -0.008025047369301319, -0.005250103306025267, 0.032785575836896896, 0.025298770517110825, 0.0014029425801709294, -0.03644296154379845, -0.061432238668203354, 0.010071387514472008, -0.017039146274328232, -0.012769605033099651, 0.02562638744711876, 0.06787535548210144, -0.028722060844302177, -0.03862445428967476, 0.053175538778305054, -0.046982817351818085, -0.04528726637363434, 0.03302427753806114, -0.07588844746351242, -0.08013007789850235, -0.009208624251186848, 0.03150466829538345, 0.026284074410796165, 0.047979313880205154, 0.07363492995500565, 0.06446101516485214, 0.04101540148258209, -0.02026582695543766, 0.04349489137530327, -0.014452176168560982, 0.006222696043550968, -0.0546291321516037, -0.02817470207810402, 0.037468623369932175, -0.01107393391430378, 0.00041245276224799454, 0.023408787325024605, 0.01687082089483738, 0.019579170271754265, -0.05793518200516701, 0.05726981163024902, -0.03346298262476921, 0.035640791058540344, -0.08764880150556564, -0.11421243846416473, 0.004476706497371197, 0.038645993918180466, -0.009535488672554493, 0.04834902659058571, -0.015075348317623138, 0.004149189684540033, -0.0675940066576004, -0.04427681863307953, -0.014226622879505157, 0.10235485434532166, 0.04566509276628494, 0.07857022434473038, -0.036807723343372345, -0.006161827594041824, -0.0020064383279532194, 0.00971301645040512, 0.05077414587140083, 0.0635719895362854, -0.06196865066885948, 0.0315643809735775, 0.003923310432583094, -0.01363882701843977, 0.06560343503952026, 0.017980076372623444, 0.05291755869984627, 0.005439455155283213, -0.07535050064325333, -0.009754320606589317, -0.09103557467460632, 5.391449035878948e-35, -0.06272536516189575, 0.04929840937256813, 0.036447882652282715, 0.08601848036050797, -0.049245964735746384, -0.024329133331775665, -0.010745538398623466, -0.016153648495674133, -0.01903172954916954, -0.04253075644373894, -0.07561866194009781, 0.09270872920751572, 0.044196657836437225, 0.048440780490636826, -0.043521322309970856, 0.012593727558851242, 0.028523104265332222, 0.11126390099525452, 0.03781392425298691, 0.007964713498950005, 0.09006647765636444, -0.037546053528785706, 0.014869979582726955, 0.016680877655744553, 0.05363954231142998, 0.04480181261897087, 0.002823798917233944, 0.07806959003210068, -0.049127258360385895, 0.003030987223610282, 0.05515991523861885, -0.0076226224191486835, -0.10653024911880493, -0.0945419892668724, -0.003395572304725647, -0.04975854605436325, 0.0011111489729955792, -0.06537288427352905, 0.03524620458483696, 0.030168600380420685, -0.04256515949964523, -0.02845599688589573, 0.011186378076672554, -0.053081247955560684, -0.02802911587059498, 0.020319504663348198, -0.0037522844504565, -0.0694185271859169, 0.0285651795566082, 0.049586955457925797, -0.098735012114048, -0.08995892852544785, 0.001711799530312419, -0.06053822487592697, -0.04883328452706337, 0.09504895657300949, -0.03074093721807003, -0.025042252615094185, 0.015500570647418499, -0.04647331312298775, -0.058911558240652084, -0.012837911956012249, -0.04124242067337036, -0.0705714076757431, -0.13450181484222412, -0.00583950849249959, 0.01450711116194725, -0.055657342076301575, 0.06628462672233582, 0.02017817832529545, 0.06089208647608757, -0.024792823940515518, 0.09216300398111343, 0.006703800987452269, 0.04512733593583107, -0.10398469865322113, -0.09723209589719772, 0.04704909399151802, 0.13979563117027283, 0.042965926229953766, 0.038985829800367355, -0.00030816736398264766, 0.03365778177976608, -0.01200962532311678, 0.041115645319223404, -0.031536512076854706, -0.0630580261349678, -0.017402181401848793, 0.08240123838186264, 0.08455193787813187, -0.09838796406984329, 0.08772924542427063, -0.1221916452050209, 0.0743587538599968, -0.023787446320056915, -2.6468174670633505e-33, 0.08179772645235062, -0.00450586574152112, -0.03758813813328743, -0.06272352486848831, 0.08349829167127609, -0.010253124870359898, -0.06175142526626587, 0.021309001371264458, 0.04320826753973961, -0.014581833966076374, 6.187948019942269e-05, -0.011732243001461029, -0.01351251546293497, 0.011899363249540329, -0.05321893468499184, -0.06559944897890091, 0.028349008411169052, -0.07214423269033432, -0.049135904759168625, -0.008081645704805851, 0.061002328991889954, -0.07125905901193619, -0.09134452790021896, -0.033068422228097916, 0.03390980884432793, -0.022683601826429367, 0.0002908932510763407, 0.0682118833065033, -0.07300160080194473, 0.0700254887342453, -0.019642017781734467, -0.02838226594030857, -0.10978225618600845, 0.03948788717389107, -0.052356742322444916, 0.07936782389879227, 0.04169036075472832, -0.047248244285583496, -0.0246355589479208, 0.057456132024526596, 0.0031747729517519474, 0.012205636128783226, 0.05930301919579506, -0.013845160603523254, 0.03357319533824921, 0.03796421363949776, 0.14784358441829681, 0.03400079533457756, 0.012254981324076653, -0.021779589354991913, 0.07487177103757858, 0.05069710686802864, 0.02819165401160717, 0.0005649125669151545, -0.049259062856435776, 0.09808260947465897, 0.092165507376194, -0.03248254209756851, -0.007856854237616062, 0.05299977958202362, 0.005591945257037878, 0.035072192549705505, -0.014052877202630043, -0.009730148129165173, -0.04300090670585632, -0.021803513169288635, 0.0006927902577444911, -0.020352711901068687, 0.020970413461327553, -0.09146761149168015, 0.05151217803359032, -0.03282065689563751, -0.010086435824632645, 0.002927085617557168, -0.04253143444657326, 0.03808117285370827, -0.0631907507777214, -0.0476609542965889, -0.013005577959120274, -0.03210096061229706, -0.02612932398915291, 0.0038683314342051744, 0.07854735851287842, 0.033021893352270126, 0.006405374966561794, 0.02149629220366478, -0.015825236216187477, -0.03443046659231186, -0.0007924208184704185, -0.0887855514883995, -0.1314254254102707, -0.016300030052661896, -0.04489191994071007, 0.02793152444064617, 0.014892063103616238, -5.684142223572053e-08, -0.100779689848423, -0.007249295245856047, 0.09053586423397064, 0.08172129839658737, -0.018719423562288284, -0.012814375571906567, -0.01683923788368702, -0.00756689952686429, 0.06095162034034729, 0.0020825499668717384, -0.04600759223103523, -0.007471881806850433, -0.07573869079351425, 0.06384991109371185, 0.05653376132249832, -0.02985851652920246, 0.023296084254980087, 0.053671807050704956, -0.043284837156534195, -0.04111054912209511, 0.11802650988101959, 0.038691721856594086, 0.05816294252872467, -0.0744866281747818, 0.043267276138067245, -0.08713839203119278, -0.07818238437175751, 0.06777147948741913, -0.01733628660440445, -0.07505732029676437, 0.019575469195842743, 0.03124314919114113, 0.05031273886561394, -0.008783383294939995, 0.05907372012734413, 0.04401947930455208, 0.02895377390086651, 0.015249097719788551, -0.01524287648499012, 0.04904765263199806, -0.04978084936738014, 0.07729530334472656, 0.07265207916498184, 0.015861356630921364, -0.055862464010715485, 0.0693650022149086, -0.1166776567697525, 0.037552010267972946, -0.031720083206892014, -0.014487185515463352, 0.06921673566102982, -0.03203704580664635, -0.06875330209732056, 0.006764883175492287, 0.02214249223470688, 0.011230901814997196, 0.03002835623919964, -0.04654210805892944, -0.03339070826768875, 0.062055692076683044, 0.013338204473257065, -0.05976705253124237, 0.009026599116623402, 0.020755186676979065]</t>
+          <t>[0.011745281517505646, -0.026483694091439247, -0.056339118629693985, 0.018976908177137375, -0.04010117053985596, -0.02072269655764103, -0.05120750889182091, 0.019630586728453636, -0.06473648548126221, -0.05873093754053116, -0.037917207926511765, -0.0424015149474144, -0.04002266749739647, -0.010955162346363068, -0.05500124394893646, 0.02660241164267063, 0.027835005894303322, -0.10845440626144409, 0.013196266256272793, -0.08561842888593674, -0.05427609756588936, -0.04795004427433014, -0.0381225049495697, 0.0031742090359330177, -0.04228287562727928, 0.04897189512848854, -0.03867758810520172, 0.00013977810158394277, -0.013533910736441612, -0.043950483202934265, 0.0004909342969767749, -0.005370020400732756, 0.13308419287204742, 0.03402348980307579, 0.038412876427173615, 0.12331796437501907, -0.08145345002412796, 0.046829916536808014, -0.030949067324399948, -0.027478188276290894, -0.026835473254323006, -0.020781364291906357, -0.027414392679929733, 0.04994778335094452, 0.019319193437695503, -0.07622230798006058, 0.09702390432357788, -0.03279249370098114, -0.05027199536561966, 0.02276182733476162, -0.039065998047590256, -0.0852842628955841, -0.0036993599496781826, -0.0579092800617218, 0.01790490560233593, 0.033752866089344025, 0.04974014684557915, 0.001115856459364295, 0.0007611626060679555, -0.06161324307322502, 0.007079786621034145, 0.008503046818077564, 0.019021881744265556, 0.017008496448397636, 0.0835866928100586, 0.004082303494215012, -0.029370862990617752, 0.07284916937351227, -0.05376552417874336, -0.08358410000801086, 0.0449642688035965, -0.09536711871623993, -0.087110236287117, 0.02160288393497467, -0.037716083228588104, 0.08056777715682983, 0.04781906679272652, 0.017201287671923637, 0.11171647906303406, -0.065813809633255, 0.08385185152292252, -0.026511192321777344, 0.009525224566459656, 0.007502831518650055, 0.0008608016651123762, -0.025285182520747185, -0.019936829805374146, 0.03816957026720047, 0.05983690917491913, 0.003498660633340478, -0.0015961485914885998, 0.024759219959378242, 0.0056666298769414425, -0.019047075882554054, 0.027546675875782967, -0.03153723105788231, -0.07108943909406662, -0.05925879627466202, -0.03716422989964485, 0.028418539091944695, -0.040825266391038895, -0.04087698087096214, 0.035650335252285004, -0.016093142330646515, -0.13527578115463257, -0.02525307424366474, 0.012176054529845715, 0.0488252192735672, 0.013634608127176762, 0.007984520867466927, -0.007576384581625462, 0.0629989504814148, -0.035935476422309875, -0.011967356316745281, 0.04877700284123421, 0.04978662356734276, -0.08866898715496063, 0.0428776890039444, 0.09656094759702682, 0.05791178345680237, 0.014898056164383888, 0.07347270846366882, 0.03764141723513603, -0.04048296809196472, -0.06301886588335037, 0.006648275535553694, -0.06835080683231354, -4.4721476865522534e-33, -0.10189100354909897, 0.029717620462179184, -0.018030734732747078, 0.06323094666004181, 0.003843017155304551, -0.018878398463129997, -0.007822215557098389, 0.04667598009109497, -0.0593595914542675, 0.07338424026966095, 0.026316704228520393, 0.1181277185678482, 0.05130521580576897, 0.08958514034748077, 0.010832306928932667, -0.030921701341867447, 0.05011698231101036, 0.07754410058259964, 0.03768370673060417, -0.02629203535616398, 0.04974883794784546, -0.07549280673265457, -0.033111557364463806, -0.007960922084748745, 0.03693251311779022, -0.04279722645878792, 0.008208290673792362, 0.023846488445997238, 0.039205532521009445, 0.0032254785764962435, 0.019193077459931374, 0.006067894399166107, -0.10465919971466064, -0.06759442389011383, 0.1068853810429573, -0.01090281642973423, -0.042042769491672516, -0.02484101802110672, 0.005237455014139414, -0.005245498847216368, -0.028964081779122353, -0.032120898365974426, -0.000296012032777071, -0.0866141989827156, -0.0015630536945536733, 0.005392668768763542, -0.016934914514422417, -0.06118219718337059, 0.05965650826692581, 0.027096888050436974, -0.058203790336847305, -0.10733657330274582, -0.011064969003200531, -0.036936692893505096, 0.058706991374492645, 0.003959690686315298, -0.009701036848127842, -0.052235957235097885, -0.00411930400878191, -0.03680868819355965, 0.007833476178348064, 0.05338054522871971, -0.1360323429107666, -0.011431420221924782, -0.10187443345785141, 0.036526039242744446, -0.017789192497730255, 0.08517102897167206, 0.08048341423273087, 0.02100306935608387, -0.0022056729067116976, -0.06200028583407402, 0.08915331214666367, 0.013529942370951176, -0.018362682312726974, -0.022647257894277573, -0.00885845348238945, 0.037686631083488464, 0.028121890500187874, 0.0901322290301323, 0.004961691796779633, 0.03436785563826561, 0.0233949925750494, -0.06652523577213287, 0.030966725200414658, 0.010790958069264889, 0.01187955029308796, 0.0024122451432049274, 0.034898411482572556, 0.04941272363066673, -0.0741216316819191, 0.004126082174479961, -0.07440350949764252, 0.17436254024505615, 0.04445159062743187, 6.039082023540347e-34, 0.027195867151021957, -0.010980007238686085, 0.09159288555383682, -0.02756664901971817, 0.08035445958375931, 0.011166178621351719, 0.05049015209078789, -0.0011576848337426782, 0.011621537618339062, 0.08203034847974777, 0.01580202579498291, 0.008663066662847996, -0.0010872577549889684, -0.00022669328609481454, 0.02200288511812687, -0.03852824121713638, -0.004417718853801489, -0.023270750418305397, -0.041183482855558395, 0.004537458997219801, 0.02472621388733387, -0.060493119060993195, -0.03435000777244568, 0.015948820859193802, 0.02134816348552704, 0.013005141168832779, 0.07520268112421036, -0.006793069653213024, 0.013437184505164623, 0.045822568237781525, -0.01307103130966425, -0.01521873939782381, -0.09632086753845215, 0.056453146040439606, -0.08917070180177689, 0.03512312099337578, 0.02578982524573803, -0.012664702720940113, -0.03145930916070938, -0.04355238378047943, 0.06541214883327484, -0.018515300005674362, -0.00656878063455224, 0.0488758310675621, -0.05177028849720955, 0.09384198486804962, 0.040235485881567, 0.024331694468855858, 0.003299204632639885, -0.11494212597608566, -0.03926662728190422, -0.0036858213134109974, 0.06849578768014908, -0.053231608122587204, 0.023254482075572014, -0.029535679146647453, 0.06229081004858017, -0.004070546943694353, -0.044452566653490067, 0.001853466616012156, 0.037599872797727585, 0.02183225378394127, 0.03131336346268654, 0.01504675205796957, -0.05907972529530525, -0.03628130257129669, 0.034276317805051804, 0.012477214448153973, -0.08177069574594498, -0.03371492773294449, 0.014756041578948498, 0.04238900914788246, -0.06287498027086258, -0.004221606999635696, -0.09138451516628265, 0.07426001876592636, -0.027751250192523003, -0.08755379915237427, -0.036547496914863586, -0.06946927309036255, 0.049452316015958786, -0.022728221490979195, 0.02689530700445175, 0.06406352669000626, 0.002312278375029564, -0.0023678785655647516, -0.04309617355465889, 0.038302261382341385, 0.07473013550043106, -0.05238703265786171, -0.08859308063983917, 0.015209889970719814, -0.03191753849387169, 0.021065393462777138, 0.012491886503994465, -5.864247043518844e-08, -0.04654736444354057, -0.011433271691203117, 0.08970671892166138, -0.023527687415480614, 0.0491214245557785, -0.022415926679968834, -0.01643075793981552, -0.06190336123108864, 0.12584981322288513, 0.04413001239299774, -0.03392721712589264, -0.017753446474671364, -0.061288703233003616, -0.017016645520925522, -0.057055193930864334, 0.00655494537204504, 0.02292436733841896, 0.0016220980323851109, 0.09293989837169647, 0.0532040111720562, 0.0640098974108696, -0.0008118405239656568, 0.0200596172362566, -0.026507936418056488, -0.0011002706596627831, -0.09751880168914795, -0.049516841769218445, 0.06738049536943436, 0.023408977314829826, -0.048822566866874695, 0.0658077746629715, 0.024719707667827606, 0.10575781762599945, -0.05394294485449791, 0.01145387813448906, -0.006331120617687702, 0.09086490422487259, 0.0367087684571743, -0.034599337726831436, -0.04870536923408508, -0.0729215145111084, 0.008101299405097961, 0.09029899537563324, -0.02990080416202545, -0.11400894075632095, 0.010552791878581047, -0.13468720018863678, 0.031152943149209023, 0.01851734332740307, -0.05858554318547249, 0.015986671671271324, 0.009228944778442383, -0.013364439830183983, 0.041254039853811264, 0.047746408730745316, 0.04082641750574112, 0.0018307693535462022, -0.04732822999358177, -0.05403544381260872, 0.023523537442088127, 0.050892021507024765, -0.1292068362236023, -0.045131850987672806, -0.01766650751233101]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>not_applied</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Graduate Consultant Intake 2024.</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Quick Release (an Alten Company).</t>
+          <t>Gain Theory</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>London, England, United Kingdom.</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Work with clients to develop insights into process, systems, and data; build relationships and advise clients; shape solutions and support project plans; assist in improving consultancy division.</t>
+          <t>As an Analyst, you will collate, analyze, and validate key performance data from clients, support and engage in client calls, and collaborate with team members to establish econometric models. You will also participate in Gain Theory's industry-leading training academy and ongoing learning and development opportunities.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Quick Release specializes in product data management and consultancy, serving various industries including automotive and aerospace, with a focus on sustainable practices.</t>
+          <t>Gain Theory is a leading global marketing effectiveness and foresight consultancy that combines quality data, proprietary technology, and advanced analytics to help clients make better investment decisions.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Not Found.</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Not Found.</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Found.</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quickrelease/j/0FF460B38D/</t>
+          <t>https://boards.greenhouse.io/gaintheory/jobs/7427938002</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[0.04312320053577423, -0.02441742829978466, 0.02473611757159233, -0.04014221578836441, -0.004613113589584827, 0.007317930925637484, 0.0013927657855674624, -0.011410627514123917, -0.06267105787992477, -0.04160746932029724, 0.03767788037657738, 0.022916579619050026, -0.04463094100356102, 0.00851225946098566, -0.012179264798760414, -0.0037409779615700245, 0.03320774435997009, -0.09867992997169495, -0.0005652212421409786, -0.027974005788564682, -0.07952183485031128, 0.0007919144118204713, -0.0297216959297657, 0.045065466314554214, -0.029927639290690422, 0.010751998052001, 0.01854005828499794, -0.0074796658009290695, 0.012399168685078621, -0.04493426904082298, 0.015951113775372505, 0.08489913493394852, -0.023065144196152687, -0.022229423746466637, 0.051801640540361404, 0.13696590065956116, -0.030268196016550064, 0.04223543033003807, 0.013052407652139664, 0.006582748610526323, -0.0344683974981308, -0.11409737914800644, -0.06624039262533188, 0.04427564516663551, 0.06575196981430054, -0.016405746340751648, 0.014030569233000278, 0.0026411954313516617, -0.05050620064139366, -0.015747586265206337, -0.11647447943687439, -0.05079912766814232, 0.007246521767228842, -0.09053082764148712, -0.05592940002679825, 0.03904743865132332, -0.02433457225561142, 0.03011462837457657, -0.05515897646546364, -0.017556309700012207, -0.023330742493271828, -0.0356125608086586, -0.021197231486439705, -0.020878512412309647, 0.04162821173667908, 0.007667718920856714, 0.02795707993209362, 0.03636974096298218, -0.04792076349258423, -0.09139443933963776, -0.023409133777022362, -0.09107837080955505, -0.07854247838258743, 0.05832641199231148, 0.017984755337238312, 0.045162100344896317, 0.02043725922703743, 0.004717602394521236, 0.06450293958187103, -0.07803269475698471, 0.08425817638635635, 0.08413401246070862, -0.0388433113694191, 0.07040176540613174, -0.08747522532939911, -0.06833934038877487, 0.026026399806141853, 0.02539004758000374, 0.006567691452801228, -0.024104658514261246, 0.0021314516197890043, -0.0503113716840744, -0.006491658743470907, 0.06189354881644249, -0.09399809688329697, 0.018462106585502625, 0.009590043686330318, -0.04428578540682793, -0.043938200920820236, 0.00048229729873128235, -0.03452175855636597, 0.03604536131024361, -0.04099122807383537, 0.03623379394412041, -0.14993703365325928, -0.044436607509851456, -0.04150080680847168, 0.09848978370428085, 0.08485368639230728, 0.01669211871922016, -0.006495494395494461, 0.06416567414999008, -0.12611441314220428, -0.015486974269151688, 0.040821436792612076, -0.07275787740945816, -0.14113055169582367, 0.002647154964506626, 0.05939466133713722, 0.04377642273902893, -0.06274452060461044, 0.1141902282834053, 0.027423866093158722, -0.020619390532374382, -0.047516874969005585, 0.024411333724856377, -0.05212864652276039, -3.0775125360618902e-33, -0.028344273567199707, 0.03494307026267052, 0.03215491399168968, 0.08425966650247574, -0.028228217735886574, -0.05256505683064461, -0.02209959551692009, 0.08558598905801773, 0.0020086478907614946, -0.0008591270307078958, 0.04468179866671562, 0.04767604172229767, -0.013792370446026325, -0.03263666108250618, 0.018465055152773857, -0.01247711107134819, 0.0480479970574379, 0.11962898820638657, -0.04131714254617691, 0.0009646588587202132, -0.08264760673046112, -0.07340347021818161, 0.02335263416171074, 0.042281556874513626, 0.10219986736774445, 0.0006158718024380505, 0.03959245607256889, 0.08345631510019302, 0.08656913042068481, 0.030615447089076042, 0.01280041690915823, -0.014686552807688713, -0.03518012538552284, -0.04027124121785164, -0.01984396204352379, -0.02415081299841404, -0.10710271447896957, -0.09056967496871948, -0.0011653798865154386, 0.005724085494875908, -0.06628144532442093, 0.04784078523516655, 0.016359133645892143, -0.044943131506443024, -0.024865711107850075, -0.0035149534232914448, -0.003192795440554619, 0.015930259600281715, 0.048065658658742905, 0.00370949599891901, -0.06354566663503647, -6.026925802871119e-06, -0.0029608779586851597, 0.025986071676015854, 0.007731297053396702, 0.008746701292693615, 0.029331795871257782, -0.04812733083963394, -0.011483453214168549, -0.026329590007662773, -0.07556634396314621, 0.08332483470439911, -0.09735066443681717, -0.06446129828691483, -0.006807639729231596, -0.03823509439826012, 0.01833161897957325, -0.02447563037276268, 0.023979373276233673, 0.024745019152760506, -0.034423697739839554, 0.0405903160572052, 0.14878104627132416, 0.002129425061866641, 0.007690496277064085, 0.003360054222866893, -0.07443057000637054, 0.0026026119012385607, 0.04113808646798134, 0.07499639689922333, 0.025251183658838272, 0.06952576339244843, 0.0215024221688509, -0.020924586802721024, 0.08480818569660187, 0.0013631752226501703, 0.023212330415844917, 0.00654195062816143, 0.03119901567697525, 0.07392148673534393, -0.0896061360836029, -0.010255781933665276, -0.10217250883579254, 0.10294262319803238, -0.013516894541680813, 7.784610319274825e-35, 0.053582336753606796, -0.049075618386268616, 0.0414024256169796, -0.016293615102767944, 0.13967818021774292, 0.014203622005879879, -0.002083816798403859, -0.017928626388311386, -0.001570410095155239, 0.07071840763092041, -0.0038221741560846567, -0.023438068106770515, -0.016728339716792107, 0.01640496961772442, -0.007156104315072298, 0.0073293522000312805, -0.013517498038709164, -0.13343745470046997, 0.0113282585516572, -0.0018696708139032125, 0.04265239089727402, -0.10393978655338287, 0.046610474586486816, 0.019517626613378525, -0.0031338389962911606, -0.012139800004661083, 0.009337016381323338, -0.027538081631064415, 0.006144431885331869, 0.010464759543538094, -0.0014804948586970568, -0.015278187580406666, -0.08894632011651993, 0.01742098294198513, -0.040977366268634796, -0.011385279707610607, -0.06272076070308685, -0.029247591271996498, -0.0012193892616778612, -0.014152689836919308, -0.007403418887406588, -0.06355687975883484, -0.014069633558392525, 0.008056963793933392, 0.0070529538206756115, -0.0477907694876194, 0.06723205745220184, -0.05428415164351463, 0.09168963134288788, -0.025716392323374748, 0.035031456500291824, 0.07903825491666794, 0.020471256226301193, -0.034903012216091156, 0.00994907971471548, -0.008261345326900482, 0.08108624070882797, -0.04249493032693863, -0.011778528802096844, 0.01890997774899006, 0.05776425078511238, -0.007232497446238995, 0.031407907605171204, -0.006449750624597073, 0.007617120165377855, -0.013522578403353691, 0.0678093433380127, 0.02116544544696808, -0.01767420768737793, -0.01779302768409252, 0.05593499168753624, 0.016777517274022102, 0.010376804508268833, -0.08329816162586212, -0.019655292853713036, -0.006902060471475124, -0.02815983258187771, -0.10932659357786179, -0.014642579481005669, -0.015124247409403324, 0.07178468257188797, -0.043648611754179, 0.015058656223118305, 0.11573637276887894, -0.031638361513614655, -0.0960984081029892, -0.0025492366403341293, 0.007143187802284956, 0.04060962423682213, 0.014369376003742218, -0.05285467579960823, 0.04302285239100456, -0.03603930026292801, 0.04438247159123421, -0.010828269645571709, -5.304393368987803e-08, -0.0554424412548542, -0.04591253027319908, 0.036294132471084595, 0.015228885225951672, 0.0346713662147522, -0.007896043360233307, -0.06131962686777115, 0.08815780282020569, 0.06478160619735718, 0.03904442861676216, 0.008517157286405563, -0.08221577107906342, -0.06201160326600075, 0.06941172480583191, 0.0517238974571228, -0.026309583336114883, -0.01792844757437706, 0.08185357600450516, -0.010912716388702393, -0.01818065531551838, 0.013741712085902691, 0.04999786242842674, 0.01454977411776781, -0.0646161213517189, 0.017293328419327736, -0.08805179595947266, 0.016691815108060837, 0.0655602365732193, -0.008528552018105984, -0.08060070872306824, -0.07382239401340485, 0.011530095711350441, 0.11427077651023865, -0.00010619968816172332, 0.045477189123630524, -0.05248109996318817, 0.053896382451057434, 0.10093006491661072, -0.021405717357993126, 0.02581324428319931, -0.07720296084880829, 0.04394708573818207, 0.01133133377879858, 0.05119842290878296, -0.02569698914885521, 0.023630138486623764, -0.016851289197802544, 0.01014233473688364, -0.033980563282966614, -0.025948621332645416, 0.0033480478450655937, -0.04023803770542145, 0.07732775807380676, 0.039283137768507004, -0.01853370852768421, 0.13016974925994873, 0.01699444092810154, -0.1443551629781723, -0.048925481736660004, 0.018619276583194733, -0.05576439946889877, -0.03166110813617706, 0.021603886038064957, 0.051080141216516495]</t>
+          <t>[0.002227066783234477, -0.02663777954876423, -0.09733694046735764, 0.008709842339158058, -0.027485733851790428, 0.029053188860416412, 0.050482988357543945, 0.03638065978884697, -0.0324355773627758, -0.02966883033514023, -0.02053523249924183, 0.032113876193761826, 0.036195848137140274, 0.026620106771588326, 0.012090601958334446, 0.05737248435616493, 0.04611949622631073, -0.02539016306400299, 0.03891624137759209, -0.06477516144514084, -0.11604872345924377, -0.0188287366181612, 0.015765557065606117, -0.003262363374233246, 0.014401078224182129, -0.07489772140979767, -0.007230913266539574, 0.011174982413649559, -0.0017825295217335224, -0.021578315645456314, -0.0676121935248375, 0.011876499280333519, 0.060878969728946686, -0.024525601416826248, -0.018259575590491295, 0.0348951481282711, -0.03964020684361458, 0.009797494858503342, 0.047776270657777786, 0.0584205724298954, 0.004292525816708803, -0.012694474309682846, 0.058945268392562866, -0.004504382610321045, 0.0025258108507841825, -0.07486608624458313, 0.03886692225933075, 0.021870005875825882, -0.05988702178001404, -0.06763185560703278, -0.12131539732217789, -0.04398495331406593, 0.01041276752948761, -0.016797015443444252, 0.00043637966155074537, 0.03131293132901192, 0.017748108133673668, 0.0009474513353779912, -0.03594156354665756, -0.06993254274129868, 0.023845110088586807, -0.016503628343343735, -0.025831224396824837, 0.021619491279125214, 0.0568978376686573, -0.02885536663234234, -0.039615098387002945, 0.06328129023313522, -0.052089400589466095, -0.06914301216602325, 0.03939244896173477, -0.0771411880850792, -0.07217483222484589, -0.005440556909888983, 0.021485453471541405, 0.03377341106534004, 0.06320309638977051, 0.0710037425160408, 0.06508749723434448, 0.04831714928150177, -0.0059319897554814816, 0.0528714619576931, -0.0018897861009463668, 0.03030516393482685, -0.06012773513793945, -0.02924555540084839, 0.023980053141713142, -0.01513584889471531, -0.0030764900147914886, 0.021569130942225456, 0.016627082601189613, 0.015983350574970245, -0.058740269392728806, 0.054600439965724945, -0.016513658687472343, 0.04176654666662216, -0.08551762998104095, -0.11612000316381454, 0.0044218855910003185, 0.02738231047987938, -0.009845376014709473, 0.045209191739559174, -0.017865652218461037, 0.008064252324402332, -0.05809512734413147, -0.02445540763437748, -0.002816075226292014, 0.11419075727462769, 0.038741037249565125, 0.0752907544374466, -0.04510940983891487, 0.006273956969380379, -0.01107676513493061, 0.011084775440394878, 0.05241454020142555, 0.06029349938035011, -0.06782695651054382, 0.03766223043203354, 0.018537523224949837, -0.004261167254298925, 0.06328146159648895, 0.01853112317621708, 0.05281835421919823, 0.001566606923006475, -0.07292293757200241, -0.005864908918738365, -0.08808804303407669, 8.45290457165622e-34, -0.07176589220762253, 0.05441555380821228, 0.04747113585472107, 0.07960320264101028, -0.03944876044988632, -0.028950192034244537, -0.021076060831546783, 0.002485204255208373, -0.018646154552698135, -0.038927190005779266, -0.07750757783651352, 0.08626163005828857, 0.039232224225997925, 0.040939848870038986, -0.053084056824445724, 0.016684353351593018, 0.040720000863075256, 0.10510850697755814, 0.029624542221426964, 0.0120866559445858, 0.08313117921352386, -0.026220865547657013, 0.010485028848052025, 0.02323894388973713, 0.04411052539944649, 0.035436682403087616, 0.010598392225801945, 0.07022389024496078, -0.05656763166189194, 0.006705528125166893, 0.06420011073350906, -0.010903718881309032, -0.11261604726314545, -0.08634192496538162, -0.00461558299139142, -0.05204378068447113, -0.007795269601047039, -0.0716145858168602, 0.03827447071671486, 0.03258657082915306, -0.04325789958238602, -0.025517018511891365, -0.004572494886815548, -0.04857492446899414, -0.03712475672364235, 0.002739576855674386, -0.0063408599235117435, -0.06440616399049759, 0.04975127428770065, 0.053459931164979935, -0.09965994209051132, -0.09747207909822464, -0.0029183519072830677, -0.06259539723396301, -0.04421105980873108, 0.0820523127913475, -0.026650261133909225, -0.042423930019140244, 0.015446946956217289, -0.04639323428273201, -0.06064306199550629, -0.006367862224578857, -0.03951582685112953, -0.08340352773666382, -0.13249656558036804, -0.008821124210953712, 0.011239857412874699, -0.06068282201886177, 0.054698795080184937, 0.01958668977022171, 0.04986618459224701, -0.019220970571041107, 0.10988937318325043, 0.019488628953695297, 0.0505264475941658, -0.09290044754743576, -0.10270418971776962, 0.04318448156118393, 0.1376132220029831, 0.0552511103451252, 0.041328392922878265, 0.01420824509114027, 0.033900607377290726, -0.00938128586858511, 0.05700244382023811, -0.020072389394044876, -0.049433786422014236, -0.021913625299930573, 0.08947066217660904, 0.08979500085115433, -0.09820451587438583, 0.07841663807630539, -0.13141503930091858, 0.08615846186876297, -0.02551746927201748, -3.049482322253556e-33, 0.0699019804596901, -0.0027419449761509895, -0.03435518592596054, -0.06437493115663528, 0.09134955704212189, -0.013695836067199707, -0.06348369270563126, 0.015050454996526241, 0.04013891890645027, -0.02644221857190132, 0.0014632797101512551, 0.0022383243776857853, -0.019589366391301155, 0.02614649385213852, -0.04620501399040222, -0.05306703597307205, 0.023082278668880463, -0.07614089548587799, -0.051166582852602005, 0.0015346765285357833, 0.04563271254301071, -0.0948273092508316, -0.08124280720949173, -0.028480982407927513, 0.030125180259346962, -0.015032450668513775, -0.002315121702849865, 0.0536436028778553, -0.05431842431426048, 0.06947296857833862, -0.03658892959356308, -0.019099997356534004, -0.0922180637717247, 0.047092221677303314, -0.056302789598703384, 0.08391063660383224, 0.012862542644143105, -0.06841117888689041, -0.02001607045531273, 0.04005293920636177, -0.0012903371825814247, 0.006586097180843353, 0.07100062817335129, -0.03704078122973442, 0.033038195222616196, 0.049840908497571945, 0.14128810167312622, 0.029042156413197517, 0.02247115783393383, -0.03260559216141701, 0.07168406248092651, 0.05834687128663063, 0.024448126554489136, 0.002420849399641156, -0.04344397410750389, 0.08159320801496506, 0.09996151179075241, -0.021424854174256325, -0.013027685694396496, 0.04780659079551697, 0.02162763476371765, 0.05058376118540764, -0.011857932433485985, -0.0057668802328407764, -0.04589621722698212, -0.02032293751835823, -0.013493691571056843, -0.030892441049218178, 0.0173476729542017, -0.09483816474676132, 0.03458665311336517, -0.024682005867362022, -0.018412234261631966, 0.0033588276710361242, -0.037623148411512375, 0.04245704784989357, -0.0754462406039238, -0.04411489889025688, -0.021325210109353065, -0.018447523936629295, -0.019085224717855453, 0.009112580679357052, 0.05926855280995369, 0.020067714154720306, 0.020437896251678467, 0.02380283549427986, -0.017743118107318878, -0.028613997623324394, -0.00723749166354537, -0.08145270496606827, -0.13396596908569336, -0.02041964791715145, -0.04642478749155998, 0.02999167889356613, 0.014012676663696766, -5.936792746297215e-08, -0.10131958872079849, -0.0021145986393094063, 0.10272747278213501, 0.09607983380556107, -0.019277462735772133, -0.003866314422339201, -0.010110159404575825, -0.007486068177968264, 0.05023117735981941, 0.004745302256196737, -0.051693059504032135, 0.0026662806048989296, -0.07813041657209396, 0.06185295060276985, 0.05448407307267189, -0.03639410436153412, 0.030027193948626518, 0.05222583934664726, -0.03197764977812767, -0.030940575525164604, 0.11312546581029892, 0.04938546568155289, 0.035438694059848785, -0.07959708571434021, 0.04307829216122627, -0.0691741406917572, -0.07967797666788101, 0.06710442900657654, -0.011587823741137981, -0.08390478789806366, 0.024813564494252205, 0.028706137090921402, 0.042974572628736496, -0.0191652812063694, 0.052203722298145294, 0.04436872527003288, 0.028916524723172188, 0.012726754881441593, -0.010483534075319767, 0.05859290808439255, -0.037808023393154144, 0.08178852498531342, 0.06702635437250137, 0.025668608024716377, -0.07071392238140106, 0.06723640859127045, -0.10604505985975266, 0.038599129766225815, -0.04138026759028435, 0.000128167710499838, 0.07356749475002289, -0.03494379296898842, -0.06984402984380722, 0.00559259532019496, 0.008015349507331848, 0.006665327586233616, 0.031153669580817223, -0.04275175556540489, -0.04131569713354111, 0.05980364605784416, 0.021780917420983315, -0.06545811891555786, 0.008736195042729378, 0.02423100546002388]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>applied</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Graduate Business Analyst</t>
+          <t>Analyst</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sprint Reply</t>
+          <t>Gain Theory</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>As a Graduate Business Analyst, you'll support the accelerated growth of the organization by helping to develop new propositions, creating use cases for intelligent automation tools, acquiring new clients and supporting business development, and delivering projects. You'll collaborate with clients, contribute to the selection of analysis and delivery methods, and more.</t>
+          <t>As an Analyst, the responsibilities include collating, analysing, and validating key performance data from clients, supporting and engaging in client calls, collaborating with the team to establish econometric models, participating in the industry-leading training academy, and ongoing learning and development.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sprint Reply is a Reply Group company that specializes in Intelligent Process Automation, creating automation platforms to solve business problems and support clients in their transformation towards the Intelligent Enterprise.</t>
+          <t>Gain Theory is a leading global marketing effectiveness and foresight consultancy that combines quality data, proprietary technology, and advanced analytics to help clients make better-informed investment decisions.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -733,83 +733,18 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://career5.successfactors.eu/sfcareer/jobreqcareer?jobId=9996&amp;company=C0004534147P</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>no longer hiring</t>
-        </is>
-      </c>
+          <t>https://boards.greenhouse.io/gaintheory/jobs/7427938002</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[-0.05981088802218437, 0.0189900491386652, 0.016492515802383423, 0.018207842484116554, -0.011496034450829029, -0.045203909277915955, 0.037243857979774475, 0.0398775115609169, -0.008095948956906796, 0.026744283735752106, -0.022465674206614494, 0.011990281753242016, 0.0016476429300382733, -0.02359849400818348, -0.019975462928414345, 0.053920138627290726, 0.0788722112774849, -0.16677546501159668, 0.0005475830985233188, -0.045850034803152084, -0.08056791126728058, 0.012652134522795677, -0.02756085805594921, 0.0033937422558665276, -0.006411571055650711, -0.0006555786821991205, -0.009712054394185543, -0.03113487921655178, -0.040229205042123795, -0.02480539120733738, -0.002101050689816475, 0.06790163367986679, 0.06724270433187485, 0.030266601592302322, 0.009173216298222542, 0.08907274156808853, 0.020420661196112633, 0.04548445716500282, 0.07454975694417953, -0.04235474392771721, -0.05584332346916199, -0.07173612713813782, -0.05854742228984833, 0.03580138087272644, 0.14968310296535492, -0.08551254868507385, -0.05818929150700569, -0.025485320016741753, -0.0430462621152401, 0.028681159019470215, -0.08019867539405823, -0.01886710710823536, -0.03173055499792099, -0.03302228823304176, -0.07089986652135849, 0.10708341747522354, 0.07129805535078049, 0.02064019814133644, 0.011927657760679722, -0.03162037953734398, 0.050943523645401, -0.03439132496714592, 0.027114413678646088, 0.0182921402156353, 0.017749816179275513, 0.017557868734002113, -0.053198203444480896, 0.015200026333332062, -0.03859221190214157, -0.07047528028488159, 0.02130703441798687, -0.08195840567350388, -0.06890594959259033, 0.10279771685600281, 0.020355476066470146, 0.014811478555202484, 0.04990389943122864, 0.03134850040078163, 0.10249204188585281, -0.01811152510344982, -0.005524137988686562, -0.020933182910084724, -0.0618700347840786, 0.04080666974186897, -0.05369837209582329, -0.046898189932107925, 0.013497785665094852, 0.03264094144105911, 0.039694953709840775, 0.0013258049730211496, 0.025651386007666588, -0.020587455481290817, -0.03186091408133507, 0.001992353703826666, -0.04189165309071541, 0.010848830454051495, -0.1028272807598114, -0.13961507380008698, 0.02115800231695175, 0.01800469122827053, -0.02899039350450039, 0.018953727558255196, 0.0204508975148201, -0.03893548250198364, -0.11117023974657059, 0.024483446031808853, -0.005876697134226561, 0.00796586275100708, 0.03226470574736595, -0.05304831638932228, 0.019340218976140022, 0.037095069885253906, 0.004094130825251341, -0.004004690796136856, 0.04449084401130676, -0.023604659363627434, -0.03943634778261185, 0.05820551514625549, 0.1416284590959549, -0.014703693799674511, 0.03654582053422928, 0.07490339130163193, -0.0741584450006485, -0.0033940055873245, -0.002241880400106311, 0.004845946095883846, -0.034739237278699875, 2.6371136693618164e-34, -0.02685299888253212, 0.03344999998807907, 0.017619233578443527, 0.019784074276685715, 0.036386508494615555, -0.03713458031415939, -0.006577903404831886, 0.005828352179378271, -0.016523577272892, 0.006796920206397772, -0.058661457151174545, 0.032847072929143906, 0.11681701987981796, -0.01942301355302334, -0.04769044741988182, -0.04467696696519852, -0.007820798084139824, 0.054387569427490234, 0.016096584498882294, -0.07683410495519638, 0.01801171898841858, -0.034381136298179626, -0.04146558418869972, -0.028877615928649902, 0.0638023316860199, 0.037517908960580826, 0.08578255772590637, -0.015868909657001495, 0.06177820265293121, 0.014359868131577969, 0.0005326957325451076, -0.007351745385676622, -0.10060305893421173, 0.03874688595533371, 0.006454522255808115, 0.0030998748261481524, -0.0477106049656868, -0.04913349077105522, -0.04454277455806732, 0.010715478099882603, -0.04383954405784607, 0.0792321190237999, -0.021275155246257782, 0.0018179150065407157, -0.010903749614953995, 0.001903995405882597, 0.04025997966527939, -0.012936153449118137, 0.1118701919913292, -0.01595149375498295, -0.07541652768850327, -0.08002471923828125, 0.04080021008849144, -0.03723817691206932, 0.045078862458467484, 0.014789371751248837, -0.02189827524125576, -0.025669138878583908, 0.04852418228983879, -0.047548308968544006, -0.019689254462718964, 0.005373495630919933, -0.10559825599193573, -0.007970429956912994, -0.012416692450642586, -0.0296481940895319, 0.01152675412595272, 0.013326345942914486, 0.13155440986156464, 0.011887701228260994, 0.05180976167321205, -0.019787395372986794, 0.1631271243095398, 0.026950832456350327, -0.025875544175505638, -0.047707002609968185, -0.03294902294874191, 0.03434818610548973, 0.00825910922139883, -0.0074126236140728, -0.017391854897141457, 0.0051646968349814415, -0.0383303128182888, -0.02021273598074913, 0.11380956321954727, -0.026348777115345, 0.011229223571717739, 0.004946887958794832, -0.011308434419333935, 0.04839875176548958, -0.05869355425238609, 0.057516373693943024, -0.07825441658496857, 0.1760009080171585, -0.03113795816898346, -1.5217166508963106e-33, 0.016233915463089943, 0.04224241152405739, -0.03932321071624756, 0.0024332297034561634, 0.09073211997747421, -0.02466077357530594, 0.05909150093793869, 0.041277170181274414, 0.00014212154201231897, -0.003957243636250496, -0.02722417376935482, -0.011196024715900421, -0.01317940466105938, 0.02095276117324829, -0.0057257916778326035, -0.026687005534768105, 0.03753389045596123, -0.03923178091645241, -0.10381194949150085, 0.020680701360106468, -0.07095692306756973, -0.006734822876751423, -0.0054638683795928955, 0.017063135281205177, 0.06151703745126724, 0.015299835242331028, 0.0028569241985678673, 0.04646950215101242, -0.009474663995206356, 0.0007597152725793421, 0.02512151189148426, -0.007335321046411991, -0.05934663861989975, 0.03850822523236275, 0.010287811979651451, 0.046789877116680145, 0.042483892291784286, -0.06898017227649689, -0.042940739542245865, -0.019154483452439308, 0.08258963376283646, -0.03743286430835724, -0.012493298389017582, 0.04683926701545715, 0.031932733952999115, 0.04267372936010361, 0.08652608096599579, -0.029198937118053436, -0.02917170338332653, -0.04590491205453873, -0.006950246635824442, -0.029092948883771896, 0.044730328023433685, -0.032681647688150406, 0.02409617230296135, -0.016612201929092407, 0.08798631280660629, -0.07749223709106445, 0.000535507861059159, 0.06592382490634918, 0.057397302240133286, 0.002066022949293256, 0.1882529854774475, 0.0036793570034205914, 0.021426929160952568, 0.037039000540971756, 0.03848499804735184, 0.013486500829458237, -0.06632157415151596, -0.02871079184114933, 0.10535107553005219, 0.006233712192624807, -0.047770578414201736, -0.025270558893680573, 0.032885871827602386, 0.03744900971651077, -0.02986716665327549, -0.04997553676366806, -0.10861794650554657, -0.021176159381866455, 0.012448740191757679, -0.012867877259850502, -0.03242836892604828, 0.14435286819934845, -0.06069722771644592, -0.12091110646724701, -0.06262200325727463, 0.022005312144756317, 0.035873059183359146, 0.023945560678839684, -0.10021483153104782, 0.000926659326069057, -0.05098656564950943, 0.08671090006828308, 0.006773888599127531, -4.922815222130339e-08, -0.0667300820350647, 0.05031304806470871, 0.03321097046136856, 0.011705657467246056, 0.048981234431266785, 0.056806087493896484, -0.030685503035783768, -0.04931618273258209, 0.06952033936977386, -0.036585185676813126, -0.0822758823633194, -0.05838409811258316, -0.04570838063955307, 0.03891567885875702, 0.06215234100818634, 0.033850204199552536, -0.043266985565423965, -0.03838475048542023, 0.02447843924164772, 0.010171633213758469, 0.15076085925102234, 0.022516317665576935, -0.038372840732336044, -0.027323871850967407, 0.018995018675923347, -0.051650624722242355, -0.07094573229551315, 0.015109906904399395, -0.005772755481302738, -0.08021239191293716, -0.05681796744465828, 0.049950502812862396, 0.043592557311058044, -0.02590087801218033, 0.05085013061761856, 0.03860578313469887, 0.07938928157091141, -0.031407780945301056, 0.005897367838770151, -0.03129115700721741, -0.07218194007873535, -0.000721006013918668, -0.00478822086006403, -0.03440243378281593, -0.02250158227980137, -0.022221138700842857, -0.04229722544550896, -0.02907126396894455, -0.0297875814139843, 0.008924142457544804, -0.016638943925499916, -0.0899827629327774, -0.017433442175388336, 0.026915378868579865, 0.0055646817199885845, 0.01555449515581131, 0.028550870716571808, -0.1439105123281479, 0.005144818685948849, 0.01843913644552231, 0.060572072863578796, -0.015439893119037151, 0.027243705466389656, 0.006799852009862661]</t>
+          <t>[-0.013491903431713581, -0.007251491770148277, -0.0949416309595108, 0.0060433619655668736, -0.02934519574046135, 0.04021602123975754, 0.05750725790858269, 0.030579697340726852, -0.01898452639579773, -0.03169820457696915, -0.007184554357081652, 0.019988851621747017, 0.03154442459344864, 0.015468239784240723, -0.002115224953740835, 0.042017050087451935, 0.04441070929169655, -0.04001976177096367, 0.03687746450304985, -0.04191268980503082, -0.09566818177700043, 0.0006026918417774141, 0.013864316046237946, 0.00502435676753521, 0.02355562336742878, -0.08636809140443802, -0.00701997522264719, -0.002431657165288925, 0.018292060121893883, -0.015799805521965027, -0.049572475254535675, 0.008102294988930225, 0.07220920920372009, -0.018598835915327072, -0.029224218800663948, 0.046995390206575394, -0.022191010415554047, -0.005833550821989775, 0.04191098362207413, 0.05156303569674492, 0.02288820594549179, -0.01912226341664791, 0.040215034037828445, 0.011620370671153069, 0.010016224347054958, -0.0757623240351677, 0.05895427614450455, 0.019254527986049652, -0.05599047616124153, -0.05103680118918419, -0.1145661398768425, -0.04014244303107262, -0.0035626443568617105, -0.015031103976070881, 0.002320583676919341, 0.027679668739438057, 0.016784386709332466, 0.003389919875189662, -0.026857823133468628, -0.05866619944572449, 0.012070502154529095, -0.016026008874177933, -0.024082930758595467, 0.035144124180078506, 0.05162592977285385, -0.04336389899253845, -0.05364375188946724, 0.04075339809060097, -0.06054489687085152, -0.0394689105451107, 0.03979821130633354, -0.07942374795675278, -0.0680907592177391, -0.004988823551684618, 0.01311882957816124, 0.03397025167942047, 0.050381820648908615, 0.0714360848069191, 0.064532071352005, 0.03534270450472832, 0.002483912743628025, 0.053519465029239655, -0.008633497171103954, 0.012994209304451942, -0.03982417285442352, -0.025172404944896698, 0.039213478565216064, -0.012400872074067593, -0.0006776411319151521, 0.023696275427937508, 0.01058058999478817, 0.007407700642943382, -0.05094651132822037, 0.05803448706865311, -0.03676825761795044, 0.03306083381175995, -0.08183775842189789, -0.11684321612119675, 0.00011233108671149239, 0.028968825936317444, -0.007705668453127146, 0.04598718136548996, -0.009332158602774143, 0.00909737404435873, -0.08310548961162567, -0.04163390398025513, -0.01498995628207922, 0.11745873838663101, 0.028739430010318756, 0.08816555887460709, -0.044641703367233276, -0.0010063194204121828, -0.009180485270917416, 0.011808997951447964, 0.05741790309548378, 0.05829272419214249, -0.07447172701358795, 0.04182181507349014, 0.018674684688448906, -0.01932772994041443, 0.07399269193410873, 0.02424047142267227, 0.06244276091456413, 0.009180005639791489, -0.08660554885864258, -0.010217809118330479, -0.07750007510185242, 4.4806598268556415e-34, -0.06490498036146164, 0.05845849588513374, 0.029528766870498657, 0.08817312121391296, -0.049608681350946426, -0.021166449412703514, -0.005505938082933426, -0.020340193063020706, -0.013816452585160732, -0.03617063909769058, -0.06679864227771759, 0.08108192682266235, 0.041260976344347, 0.04895707592368126, -0.055898044258356094, 0.01867099292576313, 0.030573517084121704, 0.12389732897281647, 0.03835907205939293, 0.010002313181757927, 0.07950736582279205, -0.03302956372499466, 0.019703710451722145, 0.027295703068375587, 0.04237848520278931, 0.0378110334277153, 0.0018005335005000234, 0.06843885034322739, -0.069095678627491, 0.004485378973186016, 0.059657733887434006, -0.019159741699695587, -0.09681256860494614, -0.08617889881134033, -0.006727803964167833, -0.03730599582195282, -0.013310126960277557, -0.07140010595321655, 0.026068896055221558, 0.030495015904307365, -0.03593941032886505, -0.020683249458670616, 0.0011941344710066915, -0.04140431433916092, -0.028825873509049416, 0.008996664546430111, -0.007402290124446154, -0.05549456551671028, 0.02466641180217266, 0.06595329195261002, -0.10441523790359497, -0.09390982985496521, 0.012082530185580254, -0.07225032895803452, -0.04220901429653168, 0.07791338115930557, -0.019079148769378662, -0.04028736799955368, 0.0023104550782591105, -0.05148757994174957, -0.04849543422460556, -0.020708207041025162, -0.05064433068037033, -0.06582536548376083, -0.11909636110067368, -0.003681811038404703, 0.017627866938710213, -0.047944776713848114, 0.052611395716667175, 0.009957978501915932, 0.05051079019904137, -0.017660312354564667, 0.10653472691774368, 0.016946757212281227, 0.03856605663895607, -0.1008579209446907, -0.11713339388370514, 0.03972974419593811, 0.14156390726566315, 0.059130098670721054, 0.035856448113918304, 0.005620436277240515, 0.025950012728571892, -0.002305290661752224, 0.044808875769376755, -0.02464263141155243, -0.05422911420464516, -0.019527912139892578, 0.08669443428516388, 0.0992283895611763, -0.09131788462400436, 0.0866750031709671, -0.13265594840049744, 0.06528323888778687, -0.028910651803016663, -2.8067039842293748e-33, 0.07308617234230042, 0.00031405489426106215, -0.035959504544734955, -0.07394164800643921, 0.07944944500923157, -0.015000971965491772, -0.06237245351076126, 0.004573750775307417, 0.04320899769663811, -0.01953347586095333, -0.01404972281306982, -0.016548825427889824, -0.02210468240082264, 0.012370741926133633, -0.0565326027572155, -0.06389888375997543, 0.035854894667863846, -0.07349936664104462, -0.056573230773210526, -0.018041623756289482, 0.06766858696937561, -0.06573314964771271, -0.07485777884721756, -0.021098194643855095, 0.029234401881694794, -0.011321374215185642, 0.007661116309463978, 0.053428277373313904, -0.06286833435297012, 0.07511463761329651, -0.023167714476585388, -0.0247326772660017, -0.10199154168367386, 0.044907160103321075, -0.05251815915107727, 0.08894896507263184, 0.03389674797654152, -0.046184998005628586, -0.020752517506480217, 0.06226832792162895, 0.00721009261906147, 0.012850989587605, 0.05988061800599098, -0.005066306330263615, 0.030006347224116325, 0.047734640538692474, 0.1464458405971527, 0.01422472856938839, 0.010713146068155766, -0.0284152552485466, 0.07044392079114914, 0.04808648303151131, 0.024499181658029556, 0.007301982492208481, -0.04416172578930855, 0.095619335770607, 0.09380286931991577, -0.04051931947469711, 0.006923256441950798, 0.045559097081422806, 0.023665733635425568, 0.04426049068570137, -0.018597213551402092, -0.014151561073958874, -0.04447852075099945, -0.021747147664427757, 0.004114302806556225, -0.02857055887579918, 0.027394147589802742, -0.0943245217204094, 0.040705375373363495, -0.04789173603057861, -0.021289534866809845, -0.03074394352734089, -0.043690845370292664, 0.04272441193461418, -0.08514440804719925, -0.0536113977432251, -0.022225357592105865, -0.019335079938173294, -0.02873256243765354, -0.0034564719535410404, 0.06664519011974335, 0.036110613495111465, 0.004991129040718079, 0.014008534140884876, -0.010655345395207405, -0.04016407951712608, 0.00475436681881547, -0.07550706714391708, -0.13431543111801147, -0.007916536182165146, -0.05159560218453407, 0.04702770337462425, 0.008967451751232147, -5.7798725805469076e-08, -0.10762470960617065, 0.003428847063332796, 0.07514022290706635, 0.08034812659025192, -0.006985126994550228, -0.0006949863163754344, -0.015508951619267464, -0.005611319560557604, 0.06246444210410118, 0.010253667831420898, -0.03964156284928322, -0.014003129675984383, -0.06587064266204834, 0.06933820992708206, 0.0596923790872097, -0.04017980769276619, 0.027824297547340393, 0.05803197994828224, -0.041999366134405136, -0.03720615431666374, 0.1185888722538948, 0.04518838971853256, 0.04470295086503029, -0.08084231615066528, 0.046408068388700485, -0.09422598034143448, -0.08604492247104645, 0.07772345840930939, -0.013485525734722614, -0.06452292948961258, 0.031861014664173126, 0.025693774223327637, 0.04264009743928909, -0.005070187617093325, 0.04107155278325081, 0.03362796828150749, 0.02745671011507511, 0.016632258892059326, -0.0014037408400326967, 0.059237878769636154, -0.05996941775083542, 0.0949355885386467, 0.08464934676885605, 0.042249634861946106, -0.0616893507540226, 0.07843340933322906, -0.1295364797115326, 0.05143789201974869, -0.043810177594423294, -0.029665397480130196, 0.06195524334907532, -0.031112615019083023, -0.06610757112503052, 0.01895548775792122, 0.018041731789708138, 0.010793634690344334, 0.03615943714976311, -0.043530844151973724, -0.02989330142736435, 0.06227503716945648, 0.0015723713440820575, -0.05665874853730202, 0.0015752040781080723, 0.010716364718973637]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>rejected</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Product Analyst</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The Association</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>London, United Kingdom</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Conduct research, document requirements, perform complex data analysis, support project management, assist leaders with reports, presentations, and business cases, engage with internal stakeholders, track performance, conduct market analysis, analyze data, prepare analysis and reports, and coach/ guide other analysts.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>The Association is a global organization transforming the accounting and finance profession, providing quality education, resources, and training.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Not Found.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Not Found.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Jun 26, 2024.</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://aicpa.referrals.selectminds.com/jobs/product-analyst-2883?src=JB-10180</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[-0.007402987219393253, -0.038597214967012405, -0.08856050670146942, -0.018324660137295723, -0.025279061868786812, 0.07181201130151749, 0.04710090532898903, -0.006698077078908682, -0.046853505074977875, -0.06013096868991852, -0.06078155338764191, -0.0432283915579319, -0.02750742807984352, 0.046655844897031784, -0.06080866605043411, 0.0904163345694542, 0.019151611253619194, -0.06632020324468613, -0.06365164369344711, -0.09271137416362762, -0.04659633710980415, 0.0016213511116802692, 0.06136178597807884, 0.04825560748577118, -0.1134277880191803, 0.0196820255368948, 0.02729107066988945, -0.055147428065538406, -0.014524047262966633, -0.08071961998939514, -0.01934710703790188, -0.031516142189502716, 0.1327376514673233, 0.018954578787088394, 0.05462637171149254, 0.08085997402667999, -0.028622761368751526, 0.014451204799115658, 0.03819305822253227, 0.01455290149897337, 0.048888418823480606, -0.04173155501484871, -0.06866808980703354, -0.006543566007167101, 0.08280670642852783, -0.0024190926924347878, 0.03544863313436508, -0.0010116607882082462, -0.034100279211997986, 0.03402332589030266, -0.07514391094446182, -0.03364833816885948, 0.008096820674836636, -0.07632151246070862, -0.04894067347049713, 0.024094780907034874, 0.011928597465157509, 0.0016229727771133184, 0.009490103460848331, -0.016933603212237358, 0.02176905795931816, 0.009848816320300102, 0.011310117319226265, 0.09310650825500488, 0.05101710557937622, 0.003383561735972762, -0.017749452963471413, 0.10342962294816971, -0.10405535250902176, -0.06386695057153702, -0.004214310087263584, -0.07901286333799362, -0.05266386643052101, -0.005330993328243494, -0.00507209450006485, 0.04158198460936546, -0.0015522005269303918, -0.028299480676651, 0.08061299473047256, 0.011288145557045937, 0.013311037793755531, 0.03260968625545502, -0.027831457555294037, 0.06648619472980499, -0.017316067591309547, -0.07038021832704544, 0.001676514744758606, -0.03724384307861328, 0.01492595300078392, 0.018699057400226593, 0.005599452648311853, -0.0005875892238691449, 0.037224750965833664, 0.014103531837463379, -0.014315887354314327, -0.006588765420019627, 0.019421353936195374, -0.0614875927567482, 0.03813324496150017, 0.026908142492175102, -0.0444442443549633, 0.004659028258174658, 0.005402283277362585, 0.02154795452952385, -0.20091776549816132, -0.05752479285001755, -0.04311883822083473, 0.06943659484386444, 0.035006437450647354, 0.0743420198559761, -0.04043247550725937, 0.06915277987718582, -0.12947224080562592, -0.007543888408690691, 0.038432758301496506, -0.012631651945412159, -0.05239863693714142, 0.029570987448096275, 0.04497608169913292, -0.038778968155384064, 0.006716000847518444, 0.07862145453691483, 0.07369343191385269, 0.035687290132045746, -0.048605483025312424, 0.058091647922992706, -0.08203914016485214, -3.820824266518871e-33, -0.07046844810247421, -0.004903830122202635, 0.017767589539289474, 0.055805522948503494, -0.09483411908149719, -0.00909220241010189, -0.03999119624495506, 0.042813464999198914, 0.00848609209060669, 0.03892717882990837, 0.0016294927336275578, 0.10755578428506851, 0.06148277968168259, 0.007529296446591616, -0.041645072400569916, 0.06257300823926926, 0.04758977144956589, 0.07435403019189835, -0.013892083428800106, -0.011213305406272411, -0.017458535730838776, -0.008650844916701317, 0.02771148458123207, 0.04060791805386543, 0.025246229022741318, 0.0035185127053409815, 0.04580756649374962, 0.020123135298490524, 0.01375710777938366, 0.020364943891763687, 0.07879415899515152, -0.026396634057164192, -0.10739966481924057, -0.05664205178618431, -0.03129405900835991, 0.023433303460478783, -0.07005424797534943, -0.06981830298900604, 0.046643976122140884, 0.0357075035572052, -0.0001948424760485068, -0.022175297141075134, 0.003734784899279475, -0.04988354071974754, 0.00366647494956851, 0.027461057528853416, -0.014521708711981773, -0.011985591612756252, 0.06061931326985359, 0.07180610299110413, -0.06243452802300453, -0.12471593916416168, -0.007950388826429844, -0.057095933705568314, 0.08568073064088821, -0.007441791705787182, -0.014099466614425182, -0.05546289682388306, 0.02926708571612835, -0.053757403045892715, -0.032802920788526535, 0.07851537317037582, -0.09651559591293335, -0.01821613498032093, -0.14730671048164368, -0.025900835171341896, 0.011450788006186485, 0.032944682985544205, 0.03281310573220253, -0.016772449016571045, -0.006143729202449322, -0.004497999791055918, 0.09844089299440384, 0.03495766595005989, -0.023981520906090736, -0.028331579640507698, -0.086407870054245, 0.04623958095908165, 0.0358288399875164, 0.08398541808128357, 0.0010520484065636992, 0.06593988835811615, 0.06316164135932922, -0.010419405065476894, 0.059999532997608185, -0.07711488753557205, -0.008200092241168022, 0.00829586386680603, -0.004850250668823719, 0.05640340968966484, -0.04726314917206764, 0.049971841275691986, -0.053557608276605606, 0.14681702852249146, 0.02169947512447834, -6.234447347937088e-34, 0.042005397379398346, -0.01436872873455286, 0.060636118054389954, -0.05336197093129158, 0.08918733149766922, -0.05310956761240959, 0.047328148037195206, -0.028387147933244705, 0.06280383467674255, 0.05888328328728676, -0.06318212300539017, -0.014732827432453632, 0.00556511664763093, 0.006466880906373262, 0.009403764270246029, -0.040589913725852966, -0.003717747051268816, -0.06305109709501266, -0.046177688986063004, -0.020021947100758553, -0.0012580044567584991, -0.05926746875047684, 0.0790971964597702, -0.060113660991191864, -0.0039659421890974045, -0.018935419619083405, 0.06391455233097076, -0.02374076470732689, 0.03468276560306549, 0.006889180280268192, -0.0142455343157053, -0.012540417723357677, -0.08877673000097275, 0.04333695024251938, -0.06688104569911957, -0.006184250582009554, -0.002054707147181034, -0.11383695155382156, 0.013684296980500221, -0.0736360251903534, 0.030685339123010635, -0.031210724264383316, 0.014558486640453339, 0.03828195482492447, 0.017540857195854187, 0.023527903482317924, 0.07092602550983429, -0.048216138035058975, 0.037525005638599396, -0.05500001087784767, -0.014967385679483414, 0.030481215566396713, 0.052354611456394196, -0.04921342059969902, -0.010359629057347775, 0.0596456341445446, 0.05657322332262993, -0.057265035808086395, -0.020763952285051346, -0.01013929396867752, 0.07442658394575119, 0.03944440186023712, 0.09777016192674637, 0.03507613763213158, -0.04677458480000496, -0.014269232749938965, 0.026340976357460022, 0.027518216520547867, -0.035928595811128616, -0.02949357032775879, 0.06103992089629173, -0.03194069489836693, -0.06945110857486725, -0.011843503452837467, -0.06852351129055023, 0.01442775409668684, -0.0856517106294632, -0.066163569688797, -0.019624851644039154, -0.014356200583279133, 0.020479973405599594, 0.04177515208721161, 0.03857695683836937, 0.014649275690317154, 0.01671529933810234, -0.006889489945024252, -0.0013637796510010958, 0.041048284620046616, 0.03976508229970932, -0.009853185154497623, -0.03864813223481178, -0.015160993672907352, -0.07219866663217545, 0.062399495393037796, 0.01305271778255701, -5.762692723010332e-08, -0.11090084165334702, -0.03770507499575615, 0.10757581889629364, 0.00854888278990984, 0.005938549991697073, -0.07162025570869446, -0.08692969381809235, -0.028433695435523987, 0.05463165044784546, 0.0418052151799202, 0.049404170364141464, -0.03383857384324074, -0.10096391290426254, 0.03828555718064308, 0.052850402891635895, -0.05640513077378273, -0.07418788224458694, 0.044549860060214996, 0.03268159180879593, 0.03284669667482376, 0.06628898531198502, 0.03905302658677101, 0.005937275942414999, -0.003408256219699979, -0.0029667785856872797, -0.10644195228815079, -0.03377935290336609, 0.03615732863545418, -0.007607762236148119, -0.12940151989459991, -0.017511405050754547, 0.044753026217222214, 0.05647532641887665, -0.020517148077487946, -0.041502855718135834, -0.024097148329019547, 0.08655241131782532, 0.03846803307533264, -0.062411680817604065, 0.005936815403401852, -0.10402479767799377, 0.021944185718894005, 0.05350865051150322, 0.022712375968694687, -0.029241757467389107, 0.051231976598501205, -0.04598679021000862, 0.032634466886520386, 0.013948213309049606, -0.011219627223908901, -0.02193177118897438, -0.05237076058983803, 0.0034937807358801365, 0.042847149074077606, -0.014833196997642517, 0.04822397232055664, -0.003869828535243869, -0.07922577857971191, -0.02628563530743122, 0.004022584296762943, 0.042452532798051834, -0.08728588372468948, 0.004704395309090614, 0.031919319182634354]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>not_applied</t>
+          <t>applied</t>
         </is>
       </c>
     </row>
